--- a/CRR Tracking 2023.xlsx
+++ b/CRR Tracking 2023.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB2E6E-2E8B-43E1-A47F-F4CF0DB84088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5479A7A-69C4-4413-A734-F975F7251D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20231231" sheetId="3" r:id="rId1"/>
     <sheet name="Summary_66" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231231'!$A$1:$D$1005</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231231'!$A$1:$D$1</definedName>
     <definedName name="บัญชี_ข้อมูลรายตัวสำหรับตรวจสอบ_22_ทั้งหมด_ระบุวันที่ด้วย">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3238,7 +3238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3268,12 +3268,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3346,6 +3389,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3360,7 +3433,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chaiyaphon  Poonchai" refreshedDate="45264.55411261574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1005" xr:uid="{7E0E08C3-D5B9-4E47-94AF-2FDA2706BD5B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chaiyaphon  Poonchai" refreshedDate="45280.458973148146" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1005" xr:uid="{7E0E08C3-D5B9-4E47-94AF-2FDA2706BD5B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="20231231"/>
   </cacheSource>
@@ -9435,7 +9508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96AB384C-EA26-487E-ABC8-D24EF3195963}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96AB384C-EA26-487E-ABC8-D24EF3195963}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -9506,48 +9579,48 @@
     <dataField name="Count of Customer Number" fld="0" subtotal="count" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="14">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="15">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="19">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="20">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="21">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9884,11 +9957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0CF0C5-815F-4C24-998A-906A15A99465}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A928" workbookViewId="0">
-      <selection sqref="A1:D1003"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9927,7 +9999,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>310001363</v>
       </c>
@@ -9941,7 +10013,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>310001504</v>
       </c>
@@ -9983,7 +10055,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>310002494</v>
       </c>
@@ -9997,7 +10069,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>310003026</v>
       </c>
@@ -10025,7 +10097,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>310006546</v>
       </c>
@@ -10039,7 +10111,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>310011120</v>
       </c>
@@ -10053,7 +10125,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>320000378</v>
       </c>
@@ -10067,7 +10139,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>330000519</v>
       </c>
@@ -10081,7 +10153,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>330002323</v>
       </c>
@@ -10109,7 +10181,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>360000916</v>
       </c>
@@ -10123,7 +10195,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>360001391</v>
       </c>
@@ -10137,7 +10209,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>360001458</v>
       </c>
@@ -10179,7 +10251,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>360002322</v>
       </c>
@@ -10193,7 +10265,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>360002709</v>
       </c>
@@ -10207,7 +10279,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>360002759</v>
       </c>
@@ -10277,7 +10349,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>360012253</v>
       </c>
@@ -10291,7 +10363,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>380000938</v>
       </c>
@@ -10319,7 +10391,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>380002624</v>
       </c>
@@ -10347,7 +10419,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>380004172</v>
       </c>
@@ -10361,7 +10433,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>380004866</v>
       </c>
@@ -10389,7 +10461,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>390001766</v>
       </c>
@@ -10403,7 +10475,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>390001836</v>
       </c>
@@ -10417,7 +10489,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>390001876</v>
       </c>
@@ -10431,7 +10503,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>390003281</v>
       </c>
@@ -10445,7 +10517,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>390003944</v>
       </c>
@@ -10459,7 +10531,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>390004094</v>
       </c>
@@ -10515,7 +10587,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>440000119</v>
       </c>
@@ -10585,7 +10657,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>480001799</v>
       </c>
@@ -10599,7 +10671,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>480002115</v>
       </c>
@@ -10627,7 +10699,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>480003008</v>
       </c>
@@ -10641,7 +10713,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>480003176</v>
       </c>
@@ -10669,7 +10741,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>480004992</v>
       </c>
@@ -10683,7 +10755,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>480005155</v>
       </c>
@@ -10697,7 +10769,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>490000217</v>
       </c>
@@ -10711,7 +10783,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>490000441</v>
       </c>
@@ -10739,7 +10811,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>490001117</v>
       </c>
@@ -10781,7 +10853,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>510000452</v>
       </c>
@@ -10809,7 +10881,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>510001317</v>
       </c>
@@ -10865,7 +10937,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>520000322</v>
       </c>
@@ -10879,7 +10951,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>520000555</v>
       </c>
@@ -10907,7 +10979,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>520001046</v>
       </c>
@@ -10921,7 +10993,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>520001452</v>
       </c>
@@ -10949,7 +11021,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>520004795</v>
       </c>
@@ -10963,7 +11035,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>530002630</v>
       </c>
@@ -11005,7 +11077,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>530003494</v>
       </c>
@@ -11033,7 +11105,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>530004019</v>
       </c>
@@ -11047,7 +11119,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>530005538</v>
       </c>
@@ -11061,7 +11133,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>530005771</v>
       </c>
@@ -11075,7 +11147,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>530006442</v>
       </c>
@@ -11089,7 +11161,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>530006666</v>
       </c>
@@ -11103,7 +11175,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>530007077</v>
       </c>
@@ -11117,7 +11189,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>530007619</v>
       </c>
@@ -11173,7 +11245,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>540000818</v>
       </c>
@@ -11187,7 +11259,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>540001262</v>
       </c>
@@ -11215,7 +11287,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>540002407</v>
       </c>
@@ -11229,7 +11301,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>540002759</v>
       </c>
@@ -11243,7 +11315,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>540003044</v>
       </c>
@@ -11257,7 +11329,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>540003710</v>
       </c>
@@ -11271,7 +11343,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>540004054</v>
       </c>
@@ -11285,7 +11357,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>540005516</v>
       </c>
@@ -11299,7 +11371,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>550001382</v>
       </c>
@@ -11313,7 +11385,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>550001975</v>
       </c>
@@ -11383,7 +11455,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>550002535</v>
       </c>
@@ -11481,7 +11553,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>570000149</v>
       </c>
@@ -11537,7 +11609,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>580001729</v>
       </c>
@@ -11579,7 +11651,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>580002321</v>
       </c>
@@ -11593,7 +11665,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>580002368</v>
       </c>
@@ -11635,7 +11707,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>580013300</v>
       </c>
@@ -11663,7 +11735,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>590000605</v>
       </c>
@@ -11677,7 +11749,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>590001088</v>
       </c>
@@ -11719,7 +11791,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>610001199</v>
       </c>
@@ -11733,7 +11805,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>610001370</v>
       </c>
@@ -11747,7 +11819,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>610001549</v>
       </c>
@@ -11761,7 +11833,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>610001552</v>
       </c>
@@ -11775,7 +11847,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>610001657</v>
       </c>
@@ -11789,7 +11861,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>610001796</v>
       </c>
@@ -11803,7 +11875,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>610002131</v>
       </c>
@@ -11845,7 +11917,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>610003742</v>
       </c>
@@ -11873,7 +11945,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>610004302</v>
       </c>
@@ -11887,7 +11959,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>610004354</v>
       </c>
@@ -11901,7 +11973,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>610004658</v>
       </c>
@@ -11915,7 +11987,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>610005077</v>
       </c>
@@ -11943,7 +12015,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>610005293</v>
       </c>
@@ -11971,7 +12043,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>610007017</v>
       </c>
@@ -11999,7 +12071,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>610007907</v>
       </c>
@@ -12041,7 +12113,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>610008283</v>
       </c>
@@ -12055,7 +12127,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>610011556</v>
       </c>
@@ -12069,7 +12141,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>610012030</v>
       </c>
@@ -12083,7 +12155,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>610012144</v>
       </c>
@@ -12097,7 +12169,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>610012930</v>
       </c>
@@ -12111,7 +12183,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>610013626</v>
       </c>
@@ -12125,7 +12197,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>610013853</v>
       </c>
@@ -12139,7 +12211,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>610017233</v>
       </c>
@@ -12153,7 +12225,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>610018600</v>
       </c>
@@ -12167,7 +12239,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>610018730</v>
       </c>
@@ -12181,7 +12253,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>610021220</v>
       </c>
@@ -12195,7 +12267,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>610022591</v>
       </c>
@@ -12237,7 +12309,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>620001113</v>
       </c>
@@ -12293,7 +12365,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>620002966</v>
       </c>
@@ -12307,7 +12379,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>620003353</v>
       </c>
@@ -12335,7 +12407,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>630001244</v>
       </c>
@@ -12349,7 +12421,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>630001872</v>
       </c>
@@ -12363,7 +12435,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>630001977</v>
       </c>
@@ -12391,7 +12463,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>630002489</v>
       </c>
@@ -12405,7 +12477,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>630002600</v>
       </c>
@@ -12419,7 +12491,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>630003100</v>
       </c>
@@ -12433,7 +12505,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>630004088</v>
       </c>
@@ -12447,7 +12519,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>630004734</v>
       </c>
@@ -12489,7 +12561,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>630005957</v>
       </c>
@@ -12503,7 +12575,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>630006473</v>
       </c>
@@ -12517,7 +12589,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>630010083</v>
       </c>
@@ -12531,7 +12603,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>630012245</v>
       </c>
@@ -12559,7 +12631,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>650000488</v>
       </c>
@@ -12573,7 +12645,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>650000643</v>
       </c>
@@ -12615,7 +12687,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>670000864</v>
       </c>
@@ -12629,7 +12701,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>670000960</v>
       </c>
@@ -12643,7 +12715,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>670001877</v>
       </c>
@@ -12685,7 +12757,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>670003662</v>
       </c>
@@ -12699,7 +12771,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>670003806</v>
       </c>
@@ -12713,7 +12785,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>670005427</v>
       </c>
@@ -12755,7 +12827,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>670007273</v>
       </c>
@@ -12769,7 +12841,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>670007301</v>
       </c>
@@ -12783,7 +12855,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>670007676</v>
       </c>
@@ -12797,7 +12869,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>670008348</v>
       </c>
@@ -12811,7 +12883,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>670008692</v>
       </c>
@@ -12825,7 +12897,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>670014180</v>
       </c>
@@ -12853,7 +12925,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>670021515</v>
       </c>
@@ -12867,7 +12939,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>680001353</v>
       </c>
@@ -12895,7 +12967,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>680001860</v>
       </c>
@@ -12923,7 +12995,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>680003035</v>
       </c>
@@ -12965,7 +13037,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>680004084</v>
       </c>
@@ -12979,7 +13051,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>680004251</v>
       </c>
@@ -13007,7 +13079,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>680004731</v>
       </c>
@@ -13049,7 +13121,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>680005795</v>
       </c>
@@ -13091,7 +13163,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>680008224</v>
       </c>
@@ -13161,7 +13233,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>680009528</v>
       </c>
@@ -13175,7 +13247,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>680010011</v>
       </c>
@@ -13189,7 +13261,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>680011846</v>
       </c>
@@ -13217,7 +13289,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>680011918</v>
       </c>
@@ -13231,7 +13303,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>680011919</v>
       </c>
@@ -13287,7 +13359,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>680013560</v>
       </c>
@@ -13301,7 +13373,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>680014191</v>
       </c>
@@ -13315,7 +13387,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>680014762</v>
       </c>
@@ -13329,7 +13401,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>680014897</v>
       </c>
@@ -13357,7 +13429,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>680015190</v>
       </c>
@@ -13371,7 +13443,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>680015550</v>
       </c>
@@ -13385,7 +13457,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>680016967</v>
       </c>
@@ -13399,7 +13471,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>680018969</v>
       </c>
@@ -13413,7 +13485,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>680020345</v>
       </c>
@@ -13469,7 +13541,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>680026953</v>
       </c>
@@ -13525,7 +13597,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>680032193</v>
       </c>
@@ -13553,7 +13625,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>680033759</v>
       </c>
@@ -13567,7 +13639,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>680037956</v>
       </c>
@@ -13651,7 +13723,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>710001194</v>
       </c>
@@ -13665,7 +13737,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>710001229</v>
       </c>
@@ -13679,7 +13751,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>710001230</v>
       </c>
@@ -13693,7 +13765,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>710001308</v>
       </c>
@@ -13707,7 +13779,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>710001598</v>
       </c>
@@ -13777,7 +13849,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>730002157</v>
       </c>
@@ -13791,7 +13863,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>730002320</v>
       </c>
@@ -13819,7 +13891,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>730003463</v>
       </c>
@@ -13847,7 +13919,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>730004741</v>
       </c>
@@ -13875,7 +13947,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>730006256</v>
       </c>
@@ -13889,7 +13961,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>730006480</v>
       </c>
@@ -13903,7 +13975,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>730006813</v>
       </c>
@@ -13917,7 +13989,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>730006879</v>
       </c>
@@ -13959,7 +14031,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>730007432</v>
       </c>
@@ -13987,7 +14059,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>730008353</v>
       </c>
@@ -14099,7 +14171,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>730010098</v>
       </c>
@@ -14113,7 +14185,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>730011161</v>
       </c>
@@ -14127,7 +14199,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>730011604</v>
       </c>
@@ -14141,7 +14213,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>730011853</v>
       </c>
@@ -14155,7 +14227,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>730011945</v>
       </c>
@@ -14183,7 +14255,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>730012589</v>
       </c>
@@ -14197,7 +14269,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>730013157</v>
       </c>
@@ -14211,7 +14283,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>730013483</v>
       </c>
@@ -14225,7 +14297,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>730013484</v>
       </c>
@@ -14239,7 +14311,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>730013901</v>
       </c>
@@ -14267,7 +14339,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>730014012</v>
       </c>
@@ -14281,7 +14353,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>730014293</v>
       </c>
@@ -14295,7 +14367,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>730014624</v>
       </c>
@@ -14309,7 +14381,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>730014657</v>
       </c>
@@ -14323,7 +14395,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>730014711</v>
       </c>
@@ -14337,7 +14409,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>730015329</v>
       </c>
@@ -14351,7 +14423,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>730015345</v>
       </c>
@@ -14379,7 +14451,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>730015569</v>
       </c>
@@ -14393,7 +14465,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>730015802</v>
       </c>
@@ -14407,7 +14479,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>730016152</v>
       </c>
@@ -14449,7 +14521,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>730018109</v>
       </c>
@@ -14463,7 +14535,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>730019023</v>
       </c>
@@ -14477,7 +14549,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>730019093</v>
       </c>
@@ -14491,7 +14563,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>730019503</v>
       </c>
@@ -14505,7 +14577,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>730021227</v>
       </c>
@@ -14533,7 +14605,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>730021379</v>
       </c>
@@ -14547,7 +14619,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>730022046</v>
       </c>
@@ -14589,7 +14661,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>730029237</v>
       </c>
@@ -14603,7 +14675,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>730031738</v>
       </c>
@@ -14617,7 +14689,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>730035980</v>
       </c>
@@ -14631,7 +14703,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>730036386</v>
       </c>
@@ -14659,7 +14731,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>730046386</v>
       </c>
@@ -14673,7 +14745,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>740000608</v>
       </c>
@@ -14743,7 +14815,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>750013615</v>
       </c>
@@ -14771,7 +14843,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>750015248</v>
       </c>
@@ -14799,7 +14871,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>750036471</v>
       </c>
@@ -14813,7 +14885,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>750037218</v>
       </c>
@@ -14827,7 +14899,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>750054253</v>
       </c>
@@ -14841,7 +14913,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>750054639</v>
       </c>
@@ -14897,7 +14969,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>750068349</v>
       </c>
@@ -14925,7 +14997,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>750070640</v>
       </c>
@@ -14939,7 +15011,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>750075273</v>
       </c>
@@ -14967,7 +15039,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>750080798</v>
       </c>
@@ -14981,7 +15053,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>750081133</v>
       </c>
@@ -14995,7 +15067,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>750086116</v>
       </c>
@@ -15009,7 +15081,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>750086219</v>
       </c>
@@ -15023,7 +15095,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>750089926</v>
       </c>
@@ -15037,7 +15109,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>750092730</v>
       </c>
@@ -15051,7 +15123,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>750097208</v>
       </c>
@@ -15065,7 +15137,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>750097991</v>
       </c>
@@ -15079,7 +15151,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>750102024</v>
       </c>
@@ -15093,7 +15165,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>750104052</v>
       </c>
@@ -15107,7 +15179,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>750105352</v>
       </c>
@@ -15121,7 +15193,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>750105874</v>
       </c>
@@ -15163,7 +15235,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>750123334</v>
       </c>
@@ -15191,7 +15263,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>750136936</v>
       </c>
@@ -15205,7 +15277,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>750140494</v>
       </c>
@@ -15219,7 +15291,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>750142067</v>
       </c>
@@ -15233,7 +15305,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>750143398</v>
       </c>
@@ -15247,7 +15319,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>750145996</v>
       </c>
@@ -15261,7 +15333,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>750161763</v>
       </c>
@@ -15275,7 +15347,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>750166222</v>
       </c>
@@ -15303,7 +15375,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>750173853</v>
       </c>
@@ -15331,7 +15403,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>750185543</v>
       </c>
@@ -15345,7 +15417,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>750186222</v>
       </c>
@@ -15359,7 +15431,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>750191214</v>
       </c>
@@ -15387,7 +15459,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>750202663</v>
       </c>
@@ -15429,7 +15501,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>750214192</v>
       </c>
@@ -15457,7 +15529,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>750245930</v>
       </c>
@@ -15471,7 +15543,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>750250182</v>
       </c>
@@ -15485,7 +15557,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>750252585</v>
       </c>
@@ -15513,7 +15585,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>750256801</v>
       </c>
@@ -15527,7 +15599,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>750258657</v>
       </c>
@@ -15569,7 +15641,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>750270320</v>
       </c>
@@ -15583,7 +15655,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>750271193</v>
       </c>
@@ -15611,7 +15683,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>750283546</v>
       </c>
@@ -15639,7 +15711,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>750285641</v>
       </c>
@@ -15653,7 +15725,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>750289737</v>
       </c>
@@ -15667,7 +15739,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>750290464</v>
       </c>
@@ -15681,7 +15753,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>750293522</v>
       </c>
@@ -15709,7 +15781,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>750296825</v>
       </c>
@@ -15723,7 +15795,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>750302462</v>
       </c>
@@ -15779,7 +15851,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>750314936</v>
       </c>
@@ -15807,7 +15879,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>750323897</v>
       </c>
@@ -15821,7 +15893,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>750324685</v>
       </c>
@@ -15849,7 +15921,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>750326494</v>
       </c>
@@ -15863,7 +15935,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>750326504</v>
       </c>
@@ -15877,7 +15949,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>750329930</v>
       </c>
@@ -15891,7 +15963,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>750336676</v>
       </c>
@@ -15947,7 +16019,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>750346461</v>
       </c>
@@ -15961,7 +16033,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>750346699</v>
       </c>
@@ -15975,7 +16047,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>750360207</v>
       </c>
@@ -16017,7 +16089,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>750375083</v>
       </c>
@@ -16031,7 +16103,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>750379006</v>
       </c>
@@ -16045,7 +16117,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>750379084</v>
       </c>
@@ -16059,7 +16131,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>750381930</v>
       </c>
@@ -16073,7 +16145,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>750382531</v>
       </c>
@@ -16087,7 +16159,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>750383321</v>
       </c>
@@ -16115,7 +16187,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>750386766</v>
       </c>
@@ -16129,7 +16201,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>750386769</v>
       </c>
@@ -16143,7 +16215,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>750389379</v>
       </c>
@@ -16157,7 +16229,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>750394788</v>
       </c>
@@ -16185,7 +16257,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>750397321</v>
       </c>
@@ -16199,7 +16271,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>750397349</v>
       </c>
@@ -16213,7 +16285,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>750397716</v>
       </c>
@@ -16227,7 +16299,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>750398494</v>
       </c>
@@ -16269,7 +16341,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>750405112</v>
       </c>
@@ -16283,7 +16355,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>750406118</v>
       </c>
@@ -16325,7 +16397,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>750418373</v>
       </c>
@@ -16339,7 +16411,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>750419144</v>
       </c>
@@ -16353,7 +16425,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>750419352</v>
       </c>
@@ -16381,7 +16453,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>750421742</v>
       </c>
@@ -16409,7 +16481,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>750423680</v>
       </c>
@@ -16423,7 +16495,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>750428998</v>
       </c>
@@ -16437,7 +16509,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>750430676</v>
       </c>
@@ -16451,7 +16523,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>750430746</v>
       </c>
@@ -16465,7 +16537,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>750431517</v>
       </c>
@@ -16493,7 +16565,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>750434909</v>
       </c>
@@ -16507,7 +16579,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>750438636</v>
       </c>
@@ -16521,7 +16593,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>750441945</v>
       </c>
@@ -16535,7 +16607,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>750442921</v>
       </c>
@@ -16549,7 +16621,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>750443343</v>
       </c>
@@ -16563,7 +16635,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>750444583</v>
       </c>
@@ -16577,7 +16649,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>750445970</v>
       </c>
@@ -16591,7 +16663,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>750449121</v>
       </c>
@@ -16605,7 +16677,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>750451702</v>
       </c>
@@ -16619,7 +16691,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>750455320</v>
       </c>
@@ -16633,7 +16705,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>750457513</v>
       </c>
@@ -16647,7 +16719,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>750458174</v>
       </c>
@@ -16661,7 +16733,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>750461592</v>
       </c>
@@ -16675,7 +16747,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>750461820</v>
       </c>
@@ -16689,7 +16761,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>750468364</v>
       </c>
@@ -16717,7 +16789,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>750476607</v>
       </c>
@@ -16731,7 +16803,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>750477679</v>
       </c>
@@ -16745,7 +16817,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>750494920</v>
       </c>
@@ -16759,7 +16831,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>750501295</v>
       </c>
@@ -16801,7 +16873,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>750515631</v>
       </c>
@@ -16815,7 +16887,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>750516173</v>
       </c>
@@ -16857,7 +16929,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>750540605</v>
       </c>
@@ -16871,7 +16943,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>750545889</v>
       </c>
@@ -16885,7 +16957,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>750552285</v>
       </c>
@@ -16927,7 +16999,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>750560001</v>
       </c>
@@ -16941,7 +17013,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>750562727</v>
       </c>
@@ -16955,7 +17027,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>750572698</v>
       </c>
@@ -16997,7 +17069,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>750589526</v>
       </c>
@@ -17025,7 +17097,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>750591674</v>
       </c>
@@ -17081,7 +17153,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>750622294</v>
       </c>
@@ -17095,7 +17167,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>750630246</v>
       </c>
@@ -17137,7 +17209,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>750642364</v>
       </c>
@@ -17165,7 +17237,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>750645212</v>
       </c>
@@ -17179,7 +17251,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>750645715</v>
       </c>
@@ -17207,7 +17279,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>750648988</v>
       </c>
@@ -17235,7 +17307,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>750657591</v>
       </c>
@@ -17249,7 +17321,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>750662105</v>
       </c>
@@ -17263,7 +17335,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>750662824</v>
       </c>
@@ -17291,7 +17363,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>750670453</v>
       </c>
@@ -17305,7 +17377,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>750671692</v>
       </c>
@@ -17375,7 +17447,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>750687079</v>
       </c>
@@ -17389,7 +17461,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>750687431</v>
       </c>
@@ -17403,7 +17475,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>750689517</v>
       </c>
@@ -17417,7 +17489,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>750690246</v>
       </c>
@@ -17501,7 +17573,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>750696767</v>
       </c>
@@ -17529,7 +17601,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>750697586</v>
       </c>
@@ -17571,7 +17643,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>750702166</v>
       </c>
@@ -17627,7 +17699,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>750708003</v>
       </c>
@@ -17669,7 +17741,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>750708916</v>
       </c>
@@ -17697,7 +17769,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>750709408</v>
       </c>
@@ -17725,7 +17797,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>750711560</v>
       </c>
@@ -17739,7 +17811,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>750711720</v>
       </c>
@@ -17781,7 +17853,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>750716062</v>
       </c>
@@ -17795,7 +17867,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>750716560</v>
       </c>
@@ -17823,7 +17895,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>750717549</v>
       </c>
@@ -17851,7 +17923,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>750719541</v>
       </c>
@@ -17865,7 +17937,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>750721106</v>
       </c>
@@ -17893,7 +17965,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>750722644</v>
       </c>
@@ -17921,7 +17993,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>750723958</v>
       </c>
@@ -18005,7 +18077,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>750735539</v>
       </c>
@@ -18033,7 +18105,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>750741071</v>
       </c>
@@ -18061,7 +18133,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>750747060</v>
       </c>
@@ -18131,7 +18203,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>750747938</v>
       </c>
@@ -18145,7 +18217,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>750747941</v>
       </c>
@@ -18159,7 +18231,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>750748113</v>
       </c>
@@ -18201,7 +18273,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>750749689</v>
       </c>
@@ -18243,7 +18315,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>750749848</v>
       </c>
@@ -18257,7 +18329,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>750750146</v>
       </c>
@@ -18271,7 +18343,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>750750210</v>
       </c>
@@ -18341,7 +18413,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>750755559</v>
       </c>
@@ -18355,7 +18427,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>750755611</v>
       </c>
@@ -18411,7 +18483,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>750758437</v>
       </c>
@@ -18425,7 +18497,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>750759293</v>
       </c>
@@ -18495,7 +18567,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>750761041</v>
       </c>
@@ -18523,7 +18595,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>750762025</v>
       </c>
@@ -18537,7 +18609,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>750764495</v>
       </c>
@@ -18551,7 +18623,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>750764562</v>
       </c>
@@ -18565,7 +18637,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>750764865</v>
       </c>
@@ -18579,7 +18651,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>750764974</v>
       </c>
@@ -18593,7 +18665,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>750765097</v>
       </c>
@@ -18621,7 +18693,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>750765651</v>
       </c>
@@ -18635,7 +18707,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>750765821</v>
       </c>
@@ -18663,7 +18735,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>750765939</v>
       </c>
@@ -18719,7 +18791,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>750769764</v>
       </c>
@@ -18733,7 +18805,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>750769899</v>
       </c>
@@ -18747,7 +18819,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>750771332</v>
       </c>
@@ -18789,7 +18861,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>750775273</v>
       </c>
@@ -18803,7 +18875,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>750776160</v>
       </c>
@@ -18831,7 +18903,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>750780026</v>
       </c>
@@ -18873,7 +18945,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>750787339</v>
       </c>
@@ -18887,7 +18959,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>750788613</v>
       </c>
@@ -18901,7 +18973,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>750791403</v>
       </c>
@@ -18929,7 +19001,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>750793422</v>
       </c>
@@ -18957,7 +19029,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>750794184</v>
       </c>
@@ -18971,7 +19043,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>750794593</v>
       </c>
@@ -18985,7 +19057,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>750795156</v>
       </c>
@@ -19013,7 +19085,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>750796702</v>
       </c>
@@ -19027,7 +19099,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>750797170</v>
       </c>
@@ -19041,7 +19113,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>750797278</v>
       </c>
@@ -19069,7 +19141,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>750797871</v>
       </c>
@@ -19083,7 +19155,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>750797944</v>
       </c>
@@ -19097,7 +19169,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>750797980</v>
       </c>
@@ -19111,7 +19183,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>750798475</v>
       </c>
@@ -19125,7 +19197,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>750800516</v>
       </c>
@@ -19139,7 +19211,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>750800525</v>
       </c>
@@ -19167,7 +19239,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>750801202</v>
       </c>
@@ -19181,7 +19253,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>750801290</v>
       </c>
@@ -19195,7 +19267,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>750801933</v>
       </c>
@@ -19209,7 +19281,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>750803774</v>
       </c>
@@ -19251,7 +19323,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>750805202</v>
       </c>
@@ -19279,7 +19351,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>750805397</v>
       </c>
@@ -19377,7 +19449,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>750807665</v>
       </c>
@@ -19405,7 +19477,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>750809296</v>
       </c>
@@ -19419,7 +19491,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>750809485</v>
       </c>
@@ -19433,7 +19505,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>750810015</v>
       </c>
@@ -19475,7 +19547,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>750810662</v>
       </c>
@@ -19489,7 +19561,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>750810685</v>
       </c>
@@ -19503,7 +19575,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>750811477</v>
       </c>
@@ -19517,7 +19589,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>750811686</v>
       </c>
@@ -19587,7 +19659,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>750819755</v>
       </c>
@@ -19601,7 +19673,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>750820157</v>
       </c>
@@ -19615,7 +19687,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>750820722</v>
       </c>
@@ -19643,7 +19715,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>750834213</v>
       </c>
@@ -19671,7 +19743,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>750836331</v>
       </c>
@@ -19685,7 +19757,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>750838432</v>
       </c>
@@ -19727,7 +19799,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>750842297</v>
       </c>
@@ -19755,7 +19827,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>750843571</v>
       </c>
@@ -19769,7 +19841,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>750844249</v>
       </c>
@@ -19797,7 +19869,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>750844356</v>
       </c>
@@ -19853,7 +19925,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>750846597</v>
       </c>
@@ -19867,7 +19939,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>750846717</v>
       </c>
@@ -19881,7 +19953,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>750847672</v>
       </c>
@@ -19895,7 +19967,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>750847833</v>
       </c>
@@ -19923,7 +19995,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>750850438</v>
       </c>
@@ -19937,7 +20009,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>750851137</v>
       </c>
@@ -20007,7 +20079,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>750852910</v>
       </c>
@@ -20021,7 +20093,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>750852911</v>
       </c>
@@ -20035,7 +20107,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>750852917</v>
       </c>
@@ -20049,7 +20121,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>750853013</v>
       </c>
@@ -20063,7 +20135,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>750853485</v>
       </c>
@@ -20105,7 +20177,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>750854232</v>
       </c>
@@ -20119,7 +20191,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>750855210</v>
       </c>
@@ -20161,7 +20233,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>750857336</v>
       </c>
@@ -20175,7 +20247,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>750862034</v>
       </c>
@@ -20189,7 +20261,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>750864548</v>
       </c>
@@ -20245,7 +20317,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>750867488</v>
       </c>
@@ -20287,7 +20359,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>750873219</v>
       </c>
@@ -20301,7 +20373,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>750875488</v>
       </c>
@@ -20343,7 +20415,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>750886925</v>
       </c>
@@ -20371,7 +20443,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>750893627</v>
       </c>
@@ -20399,7 +20471,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>750894182</v>
       </c>
@@ -20413,7 +20485,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>750894507</v>
       </c>
@@ -20483,7 +20555,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>750896969</v>
       </c>
@@ -20525,7 +20597,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>750897863</v>
       </c>
@@ -20539,7 +20611,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>750897873</v>
       </c>
@@ -20553,7 +20625,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>750897984</v>
       </c>
@@ -20609,7 +20681,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>750900254</v>
       </c>
@@ -20651,7 +20723,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>750901135</v>
       </c>
@@ -20679,7 +20751,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>750902516</v>
       </c>
@@ -20707,7 +20779,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>750903735</v>
       </c>
@@ -20763,7 +20835,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>750905528</v>
       </c>
@@ -20777,7 +20849,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>750905839</v>
       </c>
@@ -20791,7 +20863,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>750905989</v>
       </c>
@@ -20819,7 +20891,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>750906220</v>
       </c>
@@ -20833,7 +20905,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>750906730</v>
       </c>
@@ -20847,7 +20919,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>750906759</v>
       </c>
@@ -20875,7 +20947,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>750907554</v>
       </c>
@@ -20889,7 +20961,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>750907973</v>
       </c>
@@ -20917,7 +20989,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>750908531</v>
       </c>
@@ -20931,7 +21003,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>750908595</v>
       </c>
@@ -20973,7 +21045,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>750909091</v>
       </c>
@@ -21001,7 +21073,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>750909204</v>
       </c>
@@ -21015,7 +21087,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>750909349</v>
       </c>
@@ -21071,7 +21143,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>750910726</v>
       </c>
@@ -21085,7 +21157,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>750911065</v>
       </c>
@@ -21099,7 +21171,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>750911355</v>
       </c>
@@ -21113,7 +21185,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>750911412</v>
       </c>
@@ -21141,7 +21213,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>750912432</v>
       </c>
@@ -21155,7 +21227,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>750912452</v>
       </c>
@@ -21169,7 +21241,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>750912456</v>
       </c>
@@ -21183,7 +21255,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>750914073</v>
       </c>
@@ -21197,7 +21269,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>750917636</v>
       </c>
@@ -21253,7 +21325,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>750920754</v>
       </c>
@@ -21267,7 +21339,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>750921351</v>
       </c>
@@ -21281,7 +21353,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>750921746</v>
       </c>
@@ -21337,7 +21409,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>750924253</v>
       </c>
@@ -21351,7 +21423,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>750925051</v>
       </c>
@@ -21365,7 +21437,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>750925200</v>
       </c>
@@ -21393,7 +21465,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>750926540</v>
       </c>
@@ -21407,7 +21479,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>750926754</v>
       </c>
@@ -21421,7 +21493,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>750927234</v>
       </c>
@@ -21477,7 +21549,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>750929156</v>
       </c>
@@ -21505,7 +21577,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>750929716</v>
       </c>
@@ -21519,7 +21591,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>750929907</v>
       </c>
@@ -21547,7 +21619,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>750930201</v>
       </c>
@@ -21561,7 +21633,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>750930282</v>
       </c>
@@ -21575,7 +21647,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>750930365</v>
       </c>
@@ -21715,7 +21787,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>750932611</v>
       </c>
@@ -21729,7 +21801,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>750933349</v>
       </c>
@@ -21757,7 +21829,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>750933696</v>
       </c>
@@ -21785,7 +21857,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>750933946</v>
       </c>
@@ -21813,7 +21885,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>750934066</v>
       </c>
@@ -21855,7 +21927,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>750935069</v>
       </c>
@@ -21869,7 +21941,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>750935075</v>
       </c>
@@ -21897,7 +21969,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>750935383</v>
       </c>
@@ -21925,7 +21997,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>750936579</v>
       </c>
@@ -21939,7 +22011,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>750936788</v>
       </c>
@@ -21953,7 +22025,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>750937195</v>
       </c>
@@ -21967,7 +22039,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>750937459</v>
       </c>
@@ -21981,7 +22053,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>750937992</v>
       </c>
@@ -22037,7 +22109,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>750940636</v>
       </c>
@@ -22051,7 +22123,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>750941775</v>
       </c>
@@ -22079,7 +22151,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>750943504</v>
       </c>
@@ -22107,7 +22179,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>750945814</v>
       </c>
@@ -22121,7 +22193,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>750946371</v>
       </c>
@@ -22135,7 +22207,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>750946902</v>
       </c>
@@ -22163,7 +22235,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>750947761</v>
       </c>
@@ -22191,7 +22263,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>750949263</v>
       </c>
@@ -22247,7 +22319,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>750956467</v>
       </c>
@@ -22261,7 +22333,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>750956610</v>
       </c>
@@ -22317,7 +22389,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>750959338</v>
       </c>
@@ -22345,7 +22417,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>750960511</v>
       </c>
@@ -22415,7 +22487,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>750961820</v>
       </c>
@@ -22443,7 +22515,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>750962047</v>
       </c>
@@ -22457,7 +22529,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>750962051</v>
       </c>
@@ -22471,7 +22543,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>750962136</v>
       </c>
@@ -22485,7 +22557,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>750962327</v>
       </c>
@@ -22499,7 +22571,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>750962545</v>
       </c>
@@ -22541,7 +22613,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>750964128</v>
       </c>
@@ -22555,7 +22627,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>750964191</v>
       </c>
@@ -22569,7 +22641,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>750964192</v>
       </c>
@@ -22611,7 +22683,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>750964393</v>
       </c>
@@ -22653,7 +22725,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>750965269</v>
       </c>
@@ -22723,7 +22795,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>750966729</v>
       </c>
@@ -22821,7 +22893,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>750967765</v>
       </c>
@@ -22849,7 +22921,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>750968080</v>
       </c>
@@ -22863,7 +22935,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>750968152</v>
       </c>
@@ -22891,7 +22963,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>750968670</v>
       </c>
@@ -22905,7 +22977,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>750968674</v>
       </c>
@@ -22975,7 +23047,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>750969658</v>
       </c>
@@ -23031,7 +23103,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>750970376</v>
       </c>
@@ -23059,7 +23131,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>750970513</v>
       </c>
@@ -23073,7 +23145,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>750970748</v>
       </c>
@@ -23087,7 +23159,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>750970876</v>
       </c>
@@ -23101,7 +23173,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>750970942</v>
       </c>
@@ -23115,7 +23187,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>750971268</v>
       </c>
@@ -23157,7 +23229,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>750971619</v>
       </c>
@@ -23185,7 +23257,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>750971668</v>
       </c>
@@ -23199,7 +23271,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>750971727</v>
       </c>
@@ -23255,7 +23327,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>750972339</v>
       </c>
@@ -23269,7 +23341,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>750972464</v>
       </c>
@@ -23283,7 +23355,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>750972515</v>
       </c>
@@ -23311,7 +23383,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>750972653</v>
       </c>
@@ -23367,7 +23439,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>750973703</v>
       </c>
@@ -23381,7 +23453,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>750974007</v>
       </c>
@@ -23395,7 +23467,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>750974070</v>
       </c>
@@ -23423,7 +23495,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>750975130</v>
       </c>
@@ -23437,7 +23509,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>750977353</v>
       </c>
@@ -23451,7 +23523,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>750977792</v>
       </c>
@@ -23465,7 +23537,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>750978451</v>
       </c>
@@ -23479,7 +23551,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>750979846</v>
       </c>
@@ -23521,7 +23593,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>750980424</v>
       </c>
@@ -23535,7 +23607,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="975" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>750980427</v>
       </c>
@@ -23549,7 +23621,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>750980804</v>
       </c>
@@ -23563,7 +23635,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>750982064</v>
       </c>
@@ -23605,7 +23677,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="980" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>750985820</v>
       </c>
@@ -23661,7 +23733,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>750993332</v>
       </c>
@@ -23675,7 +23747,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>750995209</v>
       </c>
@@ -23717,7 +23789,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>750996062</v>
       </c>
@@ -23731,7 +23803,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="989" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>750996624</v>
       </c>
@@ -23745,7 +23817,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="990" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>750996638</v>
       </c>
@@ -23857,7 +23929,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="998" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>751005127</v>
       </c>
@@ -23885,7 +23957,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>751005710</v>
       </c>
@@ -23941,7 +24013,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>751007907</v>
       </c>
@@ -23955,7 +24027,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>751007924</v>
       </c>
@@ -23970,11 +24042,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1005" xr:uid="{185B501B-6141-4667-BE23-76C56BEB97C0}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D1" xr:uid="{8F7F8052-B759-4E5C-9232-9E3E334A53F0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23983,8 +24051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930C304D-FBD8-46B4-840F-331B8328FEE8}">
   <dimension ref="A3:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24048,13 +24116,14 @@
       <c r="A5" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>212</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>300</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -24072,16 +24141,16 @@
       <c r="A6" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>41</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>37</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>138</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -24101,16 +24170,16 @@
       <c r="A7" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>171</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>164</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>169</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>504</v>
       </c>
       <c r="H7" s="6">
@@ -24132,13 +24201,14 @@
       <c r="A8" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <v>31</v>
       </c>
       <c r="H8" s="7">
@@ -24157,13 +24227,14 @@
       <c r="A9" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>31</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -24177,16 +24248,16 @@
       <c r="A10" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <v>355</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>205</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>444</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>1004</v>
       </c>
       <c r="K10" s="12" t="s">

--- a/CRR Tracking 2023.xlsx
+++ b/CRR Tracking 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96C7BAD-53B6-431B-97DE-90297C7E52CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D7BEB-34F2-4D64-A25A-2FF682D51EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId3"/>
+    <pivotCache cacheId="16" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="1045">
   <si>
     <t>Customer Number</t>
   </si>
@@ -3112,9 +3112,6 @@
   </si>
   <si>
     <t>หมายเหตุ</t>
-  </si>
-  <si>
-    <t>(blank)</t>
   </si>
   <si>
     <t>2.1 ลูกค้าเสียชีวิต 3/10/2563 อยู่ระหว่างแต่งตั้งผู้จัดการมรดก</t>
@@ -3322,7 +3319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3356,7 +3353,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3449,7 +3445,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chaiyaphon  Poonchai" refreshedDate="45293.59906226852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1005" xr:uid="{7E0E08C3-D5B9-4E47-94AF-2FDA2706BD5B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chaiyaphon  Poonchai" refreshedDate="45295.40168599537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1005" xr:uid="{7E0E08C3-D5B9-4E47-94AF-2FDA2706BD5B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="20231231"/>
   </cacheSource>
@@ -3475,8 +3471,8 @@
       <sharedItems containsBlank="1" count="5">
         <s v="ส่งแล้ว"/>
         <s v="ส่งเเล้ว_CR"/>
+        <s v=""/>
         <m/>
-        <s v="" u="1"/>
         <s v="ส่งเเล้ว" u="1"/>
       </sharedItems>
     </cacheField>
@@ -4923,7 +4919,7 @@
     <n v="680011941"/>
     <s v="สยามอินเตอร์เนชั่นแนลฟู๊ด"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="680012796"/>
@@ -5559,7 +5555,7 @@
     <n v="750010492"/>
     <s v="อารียา แมนเนจเม้นต์"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750013615"/>
@@ -5733,7 +5729,7 @@
     <n v="750118657"/>
     <s v="อินเตอร์เซีย"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750121328"/>
@@ -6681,7 +6677,7 @@
     <n v="750676697"/>
     <s v="นอร์ทอีส รับเบอร์ จำกัด (มหาชน)"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750677912"/>
@@ -8187,7 +8183,7 @@
     <n v="750906932"/>
     <s v="ไบรท์ ดีเวลลอปเมนท์ กรุงเทพ"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750907554"/>
@@ -8271,7 +8267,7 @@
     <n v="750910654"/>
     <s v="ไร้ท์ทันเน็ลลิ่ง"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750910726"/>
@@ -8499,7 +8495,7 @@
     <n v="750930430"/>
     <s v="2499 ร่มเกล้าคอนสตรัคชั่น"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750930488"/>
@@ -8739,7 +8735,7 @@
     <n v="750947293"/>
     <s v="พี แอนด์ ซี กรุ๊ป จำกัด"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750947761"/>
@@ -9087,7 +9083,7 @@
     <n v="750969639"/>
     <s v="เอสเตท คิว"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750969658"/>
@@ -9099,7 +9095,7 @@
     <n v="750969840"/>
     <s v="ทิปโก้ฟูดส์"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750970046"/>
@@ -9177,7 +9173,7 @@
     <n v="750971645"/>
     <s v="365 อัญมณี"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750971668"/>
@@ -9195,7 +9191,7 @@
     <n v="750972067"/>
     <s v="เครือข่ายก๊าซ ไทย-ญี่ปุ่น"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750972294"/>
@@ -9243,13 +9239,13 @@
     <n v="750973356"/>
     <s v="วิซดอม โซไซตี้ ดีเวลลอปเม้น คอร์ปอเรชั่น"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750973387"/>
     <s v="สิงห์ เอสเตท"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750973512"/>
@@ -9321,7 +9317,7 @@
     <n v="750980179"/>
     <s v="โรงงานน้ำตาลบุรีรัมย์ จำกัด"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750980424"/>
@@ -9399,7 +9395,7 @@
     <n v="750995347"/>
     <s v="ไพร์ซ ดีเวลลอปเม้นท์"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750995957"/>
@@ -9441,7 +9437,7 @@
     <n v="750998506"/>
     <s v="อรดา"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750999202"/>
@@ -9501,7 +9497,7 @@
     <n v="751006964"/>
     <s v="ภคภูมิ ดีเวลอปเม้นท์"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="751007907"/>
@@ -9519,13 +9515,13 @@
     <m/>
     <m/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96AB384C-EA26-487E-ABC8-D24EF3195963}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96AB384C-EA26-487E-ABC8-D24EF3195963}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -9546,9 +9542,9 @@
       <items count="6">
         <item x="1"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="0"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9584,10 +9580,10 @@
       <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -9979,7 +9975,7 @@
   <dimension ref="A1:E1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+      <selection activeCell="E1009" sqref="E1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10059,7 +10055,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>310001861</v>
       </c>
@@ -10069,12 +10065,14 @@
       <c r="C5" t="s">
         <v>1007</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E5" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>310002385</v>
       </c>
@@ -10084,7 +10082,9 @@
       <c r="C6" t="s">
         <v>1006</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E6" t="s">
         <v>1015</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>550002046</v>
       </c>
@@ -11748,9 +11748,11 @@
       <c r="C104" t="s">
         <v>1007</v>
       </c>
-      <c r="D104" s="9"/>
+      <c r="D104" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E104" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -11940,7 +11942,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>580000928</v>
       </c>
@@ -11950,9 +11952,11 @@
       <c r="C116" t="s">
         <v>1007</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E116" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -12108,7 +12112,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>590000600</v>
       </c>
@@ -12118,9 +12122,11 @@
       <c r="C126" t="s">
         <v>1007</v>
       </c>
-      <c r="D126" s="9"/>
+      <c r="D126" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E126" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -12157,7 +12163,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>590001253</v>
       </c>
@@ -12167,12 +12173,14 @@
       <c r="C129" t="s">
         <v>1007</v>
       </c>
-      <c r="D129" s="9"/>
+      <c r="D129" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E129" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>610000734</v>
       </c>
@@ -12182,9 +12190,11 @@
       <c r="C130" t="s">
         <v>1007</v>
       </c>
-      <c r="D130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E130" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -12323,7 +12333,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>610003675</v>
       </c>
@@ -12333,9 +12343,11 @@
       <c r="C139" t="s">
         <v>1007</v>
       </c>
-      <c r="D139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E139" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -12508,7 +12520,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>610007241</v>
       </c>
@@ -12518,9 +12530,11 @@
       <c r="C150" t="s">
         <v>1007</v>
       </c>
-      <c r="D150" s="9"/>
+      <c r="D150" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E150" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -13084,7 +13098,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>630005610</v>
       </c>
@@ -13094,12 +13108,14 @@
       <c r="C184" t="s">
         <v>1007</v>
       </c>
-      <c r="D184" s="9"/>
+      <c r="D184" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E184" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>630005953</v>
       </c>
@@ -13109,7 +13125,9 @@
       <c r="C185" t="s">
         <v>1006</v>
       </c>
-      <c r="D185" s="9"/>
+      <c r="D185" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E185" t="s">
         <v>1015</v>
       </c>
@@ -13658,7 +13676,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>680003180</v>
       </c>
@@ -13668,9 +13686,11 @@
       <c r="C218" t="s">
         <v>1007</v>
       </c>
-      <c r="D218" s="9"/>
+      <c r="D218" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E218" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -13860,7 +13880,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>680008547</v>
       </c>
@@ -13870,7 +13890,9 @@
       <c r="C230" t="s">
         <v>1006</v>
       </c>
-      <c r="D230" s="9"/>
+      <c r="D230" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E230" t="s">
         <v>1015</v>
       </c>
@@ -13977,7 +13999,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>680011899</v>
       </c>
@@ -13987,7 +14009,9 @@
       <c r="C237" t="s">
         <v>1006</v>
       </c>
-      <c r="D237" s="9"/>
+      <c r="D237" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E237" t="s">
         <v>1015</v>
       </c>
@@ -14026,7 +14050,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>680011941</v>
       </c>
@@ -14036,7 +14060,9 @@
       <c r="C240" t="s">
         <v>1010</v>
       </c>
-      <c r="D240" s="9"/>
+      <c r="D240" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E240" t="s">
         <v>1015</v>
       </c>
@@ -14058,7 +14084,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>680013173</v>
       </c>
@@ -14068,9 +14094,11 @@
       <c r="C242" t="s">
         <v>1007</v>
       </c>
-      <c r="D242" s="9"/>
+      <c r="D242" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E242" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -14328,7 +14356,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>680028269</v>
       </c>
@@ -14338,7 +14366,9 @@
       <c r="C258" t="s">
         <v>1006</v>
       </c>
-      <c r="D258" s="9"/>
+      <c r="D258" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E258" t="s">
         <v>1015</v>
       </c>
@@ -14479,7 +14509,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>690001410</v>
       </c>
@@ -14489,9 +14519,11 @@
       <c r="C267" t="s">
         <v>1007</v>
       </c>
-      <c r="D267" s="9"/>
+      <c r="D267" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E267" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -14868,7 +14900,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>730007300</v>
       </c>
@@ -14878,9 +14910,11 @@
       <c r="C290" t="s">
         <v>1007</v>
       </c>
-      <c r="D290" s="9"/>
+      <c r="D290" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E290" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15614,7 +15648,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>730022248</v>
       </c>
@@ -15624,12 +15658,14 @@
       <c r="C334" t="s">
         <v>1012</v>
       </c>
-      <c r="D334" s="9"/>
+      <c r="D334" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E334" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>730022634</v>
       </c>
@@ -15639,9 +15675,11 @@
       <c r="C335" t="s">
         <v>1007</v>
       </c>
-      <c r="D335" s="9"/>
+      <c r="D335" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E335" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15712,7 +15750,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>730042409</v>
       </c>
@@ -15722,9 +15760,11 @@
       <c r="C340" t="s">
         <v>1007</v>
       </c>
-      <c r="D340" s="9"/>
+      <c r="D340" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E340" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15761,7 +15801,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>740000780</v>
       </c>
@@ -15771,12 +15811,14 @@
       <c r="C343" t="s">
         <v>1007</v>
       </c>
-      <c r="D343" s="9"/>
+      <c r="D343" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E343" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>740000828</v>
       </c>
@@ -15786,9 +15828,11 @@
       <c r="C344" t="s">
         <v>1007</v>
       </c>
-      <c r="D344" s="9"/>
+      <c r="D344" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E344" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -15808,7 +15852,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>750010492</v>
       </c>
@@ -15818,7 +15862,9 @@
       <c r="C346" t="s">
         <v>1009</v>
       </c>
-      <c r="D346" s="9"/>
+      <c r="D346" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E346" t="s">
         <v>1015</v>
       </c>
@@ -16299,7 +16345,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>750118657</v>
       </c>
@@ -16309,12 +16355,14 @@
       <c r="C375" t="s">
         <v>1010</v>
       </c>
-      <c r="D375" s="9"/>
+      <c r="D375" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E375" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>750121328</v>
       </c>
@@ -16324,9 +16372,11 @@
       <c r="C376" t="s">
         <v>1006</v>
       </c>
-      <c r="D376" s="9"/>
+      <c r="D376" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E376" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -16516,7 +16566,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>750174891</v>
       </c>
@@ -16526,7 +16576,9 @@
       <c r="C388" t="s">
         <v>1012</v>
       </c>
-      <c r="D388" s="9"/>
+      <c r="D388" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E388" t="s">
         <v>1015</v>
       </c>
@@ -16616,7 +16668,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>750203061</v>
       </c>
@@ -16626,9 +16678,11 @@
       <c r="C394" t="s">
         <v>1007</v>
       </c>
-      <c r="D394" s="9"/>
+      <c r="D394" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E394" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18365,7 +18419,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>750524849</v>
       </c>
@@ -18375,7 +18429,9 @@
       <c r="C497" t="s">
         <v>1006</v>
       </c>
-      <c r="D497" s="9"/>
+      <c r="D497" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E497" t="s">
         <v>1015</v>
       </c>
@@ -18431,7 +18487,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>750555651</v>
       </c>
@@ -18441,12 +18497,14 @@
       <c r="C501" t="s">
         <v>1007</v>
       </c>
-      <c r="D501" s="9"/>
+      <c r="D501" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E501" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>750559514</v>
       </c>
@@ -18456,9 +18514,11 @@
       <c r="C502" t="s">
         <v>1007</v>
       </c>
-      <c r="D502" s="9"/>
+      <c r="D502" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E502" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18529,7 +18589,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>750588429</v>
       </c>
@@ -18539,7 +18599,9 @@
       <c r="C507" t="s">
         <v>1006</v>
       </c>
-      <c r="D507" s="9"/>
+      <c r="D507" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E507" t="s">
         <v>1015</v>
       </c>
@@ -18969,7 +19031,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>750676697</v>
       </c>
@@ -18979,7 +19041,9 @@
       <c r="C533" t="s">
         <v>1010</v>
       </c>
-      <c r="D533" s="9"/>
+      <c r="D533" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E533" t="s">
         <v>1015</v>
       </c>
@@ -20497,7 +20561,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>750765299</v>
       </c>
@@ -20507,7 +20571,9 @@
       <c r="C623" t="s">
         <v>1006</v>
       </c>
-      <c r="D623" s="9"/>
+      <c r="D623" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E623" t="s">
         <v>1015</v>
       </c>
@@ -20784,7 +20850,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>750783767</v>
       </c>
@@ -20794,9 +20860,11 @@
       <c r="C640" t="s">
         <v>1007</v>
       </c>
-      <c r="D640" s="9"/>
+      <c r="D640" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E640" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -23162,7 +23230,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>750906070</v>
       </c>
@@ -23172,7 +23240,9 @@
       <c r="C780" t="s">
         <v>1006</v>
       </c>
-      <c r="D780" s="9"/>
+      <c r="D780" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E780" t="s">
         <v>1015</v>
       </c>
@@ -23228,7 +23298,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>750906932</v>
       </c>
@@ -23238,7 +23308,9 @@
       <c r="C784" t="s">
         <v>1010</v>
       </c>
-      <c r="D784" s="9"/>
+      <c r="D784" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E784" t="s">
         <v>1015</v>
       </c>
@@ -23277,7 +23349,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>750908477</v>
       </c>
@@ -23287,7 +23359,9 @@
       <c r="C787" t="s">
         <v>1006</v>
       </c>
-      <c r="D787" s="9"/>
+      <c r="D787" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E787" t="s">
         <v>1015</v>
       </c>
@@ -23343,7 +23417,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>750908898</v>
       </c>
@@ -23353,7 +23427,9 @@
       <c r="C791" t="s">
         <v>1006</v>
       </c>
-      <c r="D791" s="9"/>
+      <c r="D791" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E791" t="s">
         <v>1015</v>
       </c>
@@ -23443,7 +23519,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>750910568</v>
       </c>
@@ -23453,12 +23529,14 @@
       <c r="C797" t="s">
         <v>1006</v>
       </c>
-      <c r="D797" s="9"/>
+      <c r="D797" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E797" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>750910654</v>
       </c>
@@ -23468,7 +23546,9 @@
       <c r="C798" t="s">
         <v>1009</v>
       </c>
-      <c r="D798" s="9"/>
+      <c r="D798" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E798" t="s">
         <v>1015</v>
       </c>
@@ -23677,7 +23757,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>750919662</v>
       </c>
@@ -23687,7 +23767,9 @@
       <c r="C811" t="s">
         <v>1006</v>
       </c>
-      <c r="D811" s="9"/>
+      <c r="D811" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E811" t="s">
         <v>1015</v>
       </c>
@@ -23760,7 +23842,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>750923411</v>
       </c>
@@ -23770,12 +23852,14 @@
       <c r="C816" t="s">
         <v>1008</v>
       </c>
-      <c r="D816" s="9"/>
+      <c r="D816" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E816" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>750924248</v>
       </c>
@@ -23785,7 +23869,9 @@
       <c r="C817" t="s">
         <v>1012</v>
       </c>
-      <c r="D817" s="9"/>
+      <c r="D817" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E817" t="s">
         <v>1015</v>
       </c>
@@ -23936,7 +24022,9 @@
       <c r="C826" t="s">
         <v>1010</v>
       </c>
-      <c r="D826" s="9"/>
+      <c r="D826" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E826" t="s">
         <v>1015</v>
       </c>
@@ -23951,7 +24039,9 @@
       <c r="C827" t="s">
         <v>1010</v>
       </c>
-      <c r="D827" s="9"/>
+      <c r="D827" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E827" t="s">
         <v>1015</v>
       </c>
@@ -24092,7 +24182,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>750930430</v>
       </c>
@@ -24102,7 +24192,9 @@
       <c r="C836" t="s">
         <v>1010</v>
       </c>
-      <c r="D836" s="9"/>
+      <c r="D836" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E836" t="s">
         <v>1015</v>
       </c>
@@ -24124,7 +24216,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>750930767</v>
       </c>
@@ -24134,7 +24226,9 @@
       <c r="C838" t="s">
         <v>1006</v>
       </c>
-      <c r="D838" s="9"/>
+      <c r="D838" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E838" t="s">
         <v>1015</v>
       </c>
@@ -24173,7 +24267,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>750931310</v>
       </c>
@@ -24183,7 +24277,9 @@
       <c r="C841" t="s">
         <v>1012</v>
       </c>
-      <c r="D841" s="9"/>
+      <c r="D841" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E841" t="s">
         <v>1015</v>
       </c>
@@ -24392,7 +24488,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>750934800</v>
       </c>
@@ -24402,7 +24498,9 @@
       <c r="C854" t="s">
         <v>1006</v>
       </c>
-      <c r="D854" s="9"/>
+      <c r="D854" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E854" t="s">
         <v>1015</v>
       </c>
@@ -24441,7 +24539,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>750935296</v>
       </c>
@@ -24451,7 +24549,9 @@
       <c r="C857" t="s">
         <v>1012</v>
       </c>
-      <c r="D857" s="9"/>
+      <c r="D857" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E857" t="s">
         <v>1015</v>
       </c>
@@ -24473,7 +24573,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>750935706</v>
       </c>
@@ -24483,7 +24583,9 @@
       <c r="C859" t="s">
         <v>1006</v>
       </c>
-      <c r="D859" s="9"/>
+      <c r="D859" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E859" t="s">
         <v>1015</v>
       </c>
@@ -24760,7 +24862,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>750947293</v>
       </c>
@@ -24770,7 +24872,9 @@
       <c r="C876" t="s">
         <v>1010</v>
       </c>
-      <c r="D876" s="9"/>
+      <c r="D876" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E876" t="s">
         <v>1015</v>
       </c>
@@ -24979,7 +25083,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>750959783</v>
       </c>
@@ -24989,7 +25093,9 @@
       <c r="C889" t="s">
         <v>1006</v>
       </c>
-      <c r="D889" s="9"/>
+      <c r="D889" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E889" t="s">
         <v>1015</v>
       </c>
@@ -25045,7 +25151,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>750961263</v>
       </c>
@@ -25055,7 +25161,9 @@
       <c r="C893" t="s">
         <v>1006</v>
       </c>
-      <c r="D893" s="9"/>
+      <c r="D893" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E893" t="s">
         <v>1015</v>
       </c>
@@ -25196,7 +25304,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>750962656</v>
       </c>
@@ -25206,7 +25314,9 @@
       <c r="C902" t="s">
         <v>1006</v>
       </c>
-      <c r="D902" s="9"/>
+      <c r="D902" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E902" t="s">
         <v>1015</v>
       </c>
@@ -25221,7 +25331,9 @@
       <c r="C903" t="s">
         <v>1010</v>
       </c>
-      <c r="D903" s="9"/>
+      <c r="D903" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E903" t="s">
         <v>1015</v>
       </c>
@@ -25508,7 +25620,9 @@
       <c r="C920" t="s">
         <v>1009</v>
       </c>
-      <c r="D920" s="9"/>
+      <c r="D920" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E920" t="s">
         <v>1015</v>
       </c>
@@ -25734,7 +25848,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>750969639</v>
       </c>
@@ -25744,7 +25858,9 @@
       <c r="C934" t="s">
         <v>1009</v>
       </c>
-      <c r="D934" s="9"/>
+      <c r="D934" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E934" t="s">
         <v>1015</v>
       </c>
@@ -25766,7 +25882,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>750969840</v>
       </c>
@@ -25776,7 +25892,9 @@
       <c r="C936" t="s">
         <v>1009</v>
       </c>
-      <c r="D936" s="9"/>
+      <c r="D936" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E936" t="s">
         <v>1015</v>
       </c>
@@ -25985,7 +26103,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>750971645</v>
       </c>
@@ -25995,7 +26113,9 @@
       <c r="C949" t="s">
         <v>1010</v>
       </c>
-      <c r="D949" s="9"/>
+      <c r="D949" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E949" t="s">
         <v>1015</v>
       </c>
@@ -26034,7 +26154,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>750972067</v>
       </c>
@@ -26044,7 +26164,9 @@
       <c r="C952" t="s">
         <v>1009</v>
       </c>
-      <c r="D952" s="9"/>
+      <c r="D952" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E952" t="s">
         <v>1015</v>
       </c>
@@ -26168,7 +26290,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>750973356</v>
       </c>
@@ -26178,12 +26300,14 @@
       <c r="C960" t="s">
         <v>1009</v>
       </c>
-      <c r="D960" s="9"/>
+      <c r="D960" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E960" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>750973387</v>
       </c>
@@ -26193,7 +26317,9 @@
       <c r="C961" t="s">
         <v>1009</v>
       </c>
-      <c r="D961" s="9"/>
+      <c r="D961" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E961" t="s">
         <v>1015</v>
       </c>
@@ -26385,7 +26511,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>750980179</v>
       </c>
@@ -26395,7 +26521,9 @@
       <c r="C973" t="s">
         <v>1010</v>
       </c>
-      <c r="D973" s="9"/>
+      <c r="D973" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E973" t="s">
         <v>1015</v>
       </c>
@@ -26604,7 +26732,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>750995347</v>
       </c>
@@ -26614,7 +26742,9 @@
       <c r="C986" t="s">
         <v>1009</v>
       </c>
-      <c r="D986" s="9"/>
+      <c r="D986" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E986" t="s">
         <v>1015</v>
       </c>
@@ -26721,7 +26851,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>750998506</v>
       </c>
@@ -26731,7 +26861,9 @@
       <c r="C993" t="s">
         <v>1010</v>
       </c>
-      <c r="D993" s="9"/>
+      <c r="D993" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E993" t="s">
         <v>1015</v>
       </c>
@@ -26889,7 +27021,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>751006964</v>
       </c>
@@ -26899,7 +27031,9 @@
       <c r="C1003" t="s">
         <v>1009</v>
       </c>
-      <c r="D1003" s="9"/>
+      <c r="D1003" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="E1003" t="s">
         <v>1015</v>
       </c>
@@ -26939,7 +27073,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1005" xr:uid="{2802FC8E-99FA-4206-AA6C-7746ECD8DE89}">
+  <autoFilter ref="A1:E1005" xr:uid="{5C15034B-DED1-447B-9675-5E67C6BD6AE1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ฝ่ายธุรกิจ 1"/>
+        <filter val="ฝ่ายธุรกิจ 2"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -26953,7 +27093,7 @@
   <dimension ref="A3:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I22"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26961,7 +27101,7 @@
     <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
@@ -26988,7 +27128,7 @@
         <v>45293</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K3" s="11">
         <v>45257</v>
@@ -27004,9 +27144,7 @@
       <c r="C4" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1028</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>1018</v>
       </c>
@@ -27015,29 +27153,29 @@
         <v>1022</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5">
         <v>88</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5">
         <v>187</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5">
         <v>300</v>
       </c>
       <c r="G5" s="13"/>
@@ -27046,7 +27184,7 @@
         <v>275</v>
       </c>
       <c r="I5" s="4">
-        <f>GETPIVOTDATA("Customer Number",$D$5,"ฝ่ายงาน","SMEs 1","จัดส่ง",)</f>
+        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 1","จัดส่ง","")</f>
         <v>25</v>
       </c>
       <c r="J5" s="4">
@@ -27060,16 +27198,16 @@
       <c r="A6" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>60</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6">
         <v>77</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6">
         <v>138</v>
       </c>
       <c r="G6" s="14"/>
@@ -27092,16 +27230,16 @@
       <c r="A7" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7">
         <v>171</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>312</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7">
         <v>504</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -27114,7 +27252,7 @@
         <v>45293</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K7" s="11">
         <v>45257</v>
@@ -27124,16 +27262,16 @@
       <c r="A8" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C8" s="15">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>31</v>
       </c>
       <c r="G8" s="13"/>
@@ -27141,29 +27279,29 @@
         <v>1022</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>31</v>
       </c>
       <c r="G9" s="13"/>
@@ -27172,7 +27310,7 @@
         <v>137</v>
       </c>
       <c r="I9" s="4">
-        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 2","จัดส่ง",)</f>
+        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 2","จัดส่ง","")</f>
         <v>1</v>
       </c>
       <c r="J9" s="4">
@@ -27186,16 +27324,16 @@
       <c r="A10" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10">
         <v>355</v>
       </c>
-      <c r="C10" s="15">
-        <v>580</v>
-      </c>
-      <c r="D10" s="15">
-        <v>69</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C10">
+        <v>598</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
         <v>1004</v>
       </c>
       <c r="G10" s="14"/>
@@ -27225,7 +27363,7 @@
         <v>45293</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K11" s="11">
         <v>45257</v>
@@ -27237,13 +27375,13 @@
         <v>1022</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -27253,7 +27391,7 @@
         <v>483</v>
       </c>
       <c r="I13" s="4">
-        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 3","จัดส่ง",)</f>
+        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 3","จัดส่ง","")</f>
         <v>21</v>
       </c>
       <c r="J13" s="4">
@@ -27291,7 +27429,7 @@
         <v>45293</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K15" s="11">
         <v>45257</v>
@@ -27303,24 +27441,24 @@
         <v>1022</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G17" s="13"/>
       <c r="H17" s="4">
         <f>SUM(B8:C8)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I17" s="4">
-        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","ฝ่ายธุรกิจ 1","จัดส่ง",)</f>
-        <v>10</v>
+        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","ฝ่ายธุรกิจ 1","จัดส่ง","")</f>
+        <v>1</v>
       </c>
       <c r="J17" s="4">
         <v>290</v>
@@ -27333,11 +27471,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="5">
         <f>H17/SUM(H17:I17)</f>
-        <v>0.67741935483870963</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I18" s="5">
         <f>I17/GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 1")</f>
-        <v>3.3333333333333333E-2</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="J18" s="5">
         <v>0.89783281733746134</v>
@@ -27357,7 +27495,7 @@
         <v>45293</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K19" s="11">
         <v>45257</v>
@@ -27369,24 +27507,24 @@
         <v>1022</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="21" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G21" s="13"/>
       <c r="H21" s="4">
         <f>SUM(B9:C9)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I21" s="4">
-        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","ฝ่ายธุรกิจ 2","จัดส่ง",)</f>
-        <v>12</v>
+        <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","ฝ่ายธุรกิจ 2","จัดส่ง","")</f>
+        <v>3</v>
       </c>
       <c r="J21" s="4">
         <v>290</v>
@@ -27399,11 +27537,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="5">
         <f>H21/SUM(H21:I21)</f>
-        <v>0.61290322580645162</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="I22" s="5">
         <f>I21/GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 1")</f>
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="J22" s="5">
         <v>0.89783281733746134</v>

--- a/CRR Tracking 2023.xlsx
+++ b/CRR Tracking 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D7BEB-34F2-4D64-A25A-2FF682D51EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FB26A-53B4-481A-BC9C-113677E6EE34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20231231" sheetId="3" r:id="rId1"/>
@@ -22,13 +22,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="1046">
   <si>
     <t>Customer Number</t>
   </si>
@@ -3163,6 +3163,9 @@
   </si>
   <si>
     <t>จ่ายหนี้ด้วยเงินเดือน</t>
+  </si>
+  <si>
+    <t>key ลงในระบบในปี 67</t>
   </si>
 </sst>
 </file>
@@ -3319,7 +3322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3353,6 +3356,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3445,7 +3449,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chaiyaphon  Poonchai" refreshedDate="45295.40168599537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1005" xr:uid="{7E0E08C3-D5B9-4E47-94AF-2FDA2706BD5B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chaiyaphon  Poonchai" refreshedDate="45299.36036875" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1005" xr:uid="{7E0E08C3-D5B9-4E47-94AF-2FDA2706BD5B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="20231231"/>
   </cacheSource>
@@ -8375,7 +8379,7 @@
     <n v="750923411"/>
     <s v="อัครเพชร"/>
     <x v="2"/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="750924248"/>
@@ -9521,7 +9525,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96AB384C-EA26-487E-ABC8-D24EF3195963}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96AB384C-EA26-487E-ABC8-D24EF3195963}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -9971,11 +9975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0CF0C5-815F-4C24-998A-906A15A99465}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1009" sqref="E1009"/>
+    <sheetView topLeftCell="A786" workbookViewId="0">
+      <selection activeCell="E804" sqref="E804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10004,7 +10007,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>310000017</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>310001363</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>310001504</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>310001861</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>310002385</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>310002494</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>310003026</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>310004069</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>310006546</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>310011120</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>320000378</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>330000519</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>330002323</v>
       </c>
@@ -10225,7 +10228,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>360000849</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>360000916</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>360001391</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>360001458</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>360001906</v>
       </c>
@@ -10310,7 +10313,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>360002260</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>360002322</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>360002709</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>360002759</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>360003317</v>
       </c>
@@ -10395,7 +10398,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>360003642</v>
       </c>
@@ -10412,7 +10415,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>360004272</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>360011218</v>
       </c>
@@ -10446,7 +10449,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>360012253</v>
       </c>
@@ -10463,7 +10466,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>380000938</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>380001771</v>
       </c>
@@ -10497,7 +10500,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>380002624</v>
       </c>
@@ -10514,7 +10517,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>380003509</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>380004172</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>380004866</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>390001291</v>
       </c>
@@ -10582,7 +10585,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>390001766</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>390001836</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>390001876</v>
       </c>
@@ -10633,7 +10636,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>390003281</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>390003944</v>
       </c>
@@ -10667,7 +10670,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>390004094</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>390006043</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>390006346</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>390006761</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>440000119</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>480000397</v>
       </c>
@@ -10769,7 +10772,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>480000611</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>480000688</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>480001531</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>480001799</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>480002115</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>480002348</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>480003008</v>
       </c>
@@ -10888,7 +10891,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>480003176</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>480003297</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>480004992</v>
       </c>
@@ -10939,7 +10942,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>480005155</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>490000217</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>490000441</v>
       </c>
@@ -10990,7 +10993,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>490000862</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>490001117</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>490002451</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>510000449</v>
       </c>
@@ -11058,7 +11061,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>510000452</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>510000733</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>510001317</v>
       </c>
@@ -11109,7 +11112,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>510002377</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>510003472</v>
       </c>
@@ -11143,7 +11146,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>520000209</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>520000322</v>
       </c>
@@ -11177,7 +11180,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>520000555</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>520000621</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>520001046</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>520001452</v>
       </c>
@@ -11245,7 +11248,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>520003220</v>
       </c>
@@ -11262,7 +11265,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>520004795</v>
       </c>
@@ -11279,7 +11282,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>530002630</v>
       </c>
@@ -11296,7 +11299,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>530002685</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>530003423</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>530003494</v>
       </c>
@@ -11347,7 +11350,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>530003672</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>530004019</v>
       </c>
@@ -11381,7 +11384,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>530005538</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>530005771</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>530006442</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>530006666</v>
       </c>
@@ -11449,7 +11452,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>530007077</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>530007619</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>530009804</v>
       </c>
@@ -11500,7 +11503,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>530010861</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>530013472</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>540000818</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>540001262</v>
       </c>
@@ -11568,7 +11571,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>540001870</v>
       </c>
@@ -11585,7 +11588,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>540002407</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>540002759</v>
       </c>
@@ -11619,7 +11622,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>540003044</v>
       </c>
@@ -11636,7 +11639,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>540003710</v>
       </c>
@@ -11653,7 +11656,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>540004054</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>540005516</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>550001382</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>550001975</v>
       </c>
@@ -11721,7 +11724,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>550002011</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>550002046</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>550002348</v>
       </c>
@@ -11772,7 +11775,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>550002424</v>
       </c>
@@ -11789,7 +11792,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>550002535</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>550003079</v>
       </c>
@@ -11823,7 +11826,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>550003476</v>
       </c>
@@ -11840,7 +11843,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>550003946</v>
       </c>
@@ -11857,7 +11860,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>550005314</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>550005508</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>560000141</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>570000149</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>580000857</v>
       </c>
@@ -11942,7 +11945,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>580000928</v>
       </c>
@@ -11959,7 +11962,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>580001258</v>
       </c>
@@ -11976,7 +11979,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>580001729</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>580001742</v>
       </c>
@@ -12010,7 +12013,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>580001959</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>580002321</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>580002368</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>580002468</v>
       </c>
@@ -12078,7 +12081,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>580003343</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>580013300</v>
       </c>
@@ -12112,7 +12115,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>590000600</v>
       </c>
@@ -12129,7 +12132,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>590000605</v>
       </c>
@@ -12146,7 +12149,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>590001088</v>
       </c>
@@ -12163,7 +12166,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>590001253</v>
       </c>
@@ -12180,7 +12183,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>610000734</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>610001199</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>610001370</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>610001549</v>
       </c>
@@ -12248,7 +12251,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>610001552</v>
       </c>
@@ -12265,7 +12268,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>610001657</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>610001796</v>
       </c>
@@ -12299,7 +12302,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>610002131</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>610002906</v>
       </c>
@@ -12333,7 +12336,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>610003675</v>
       </c>
@@ -12350,7 +12353,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>610003742</v>
       </c>
@@ -12367,7 +12370,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>610003767</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>610004302</v>
       </c>
@@ -12401,7 +12404,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>610004354</v>
       </c>
@@ -12418,7 +12421,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>610004658</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>610005077</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>610005225</v>
       </c>
@@ -12469,7 +12472,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>610005293</v>
       </c>
@@ -12486,7 +12489,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>610006490</v>
       </c>
@@ -12503,7 +12506,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>610007017</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>610007241</v>
       </c>
@@ -12537,7 +12540,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>610007907</v>
       </c>
@@ -12554,7 +12557,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>610008012</v>
       </c>
@@ -12571,7 +12574,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>610008225</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>610008283</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>610011556</v>
       </c>
@@ -12622,7 +12625,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>610012030</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>610012144</v>
       </c>
@@ -12656,7 +12659,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>610012930</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>610013626</v>
       </c>
@@ -12690,7 +12693,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>610013853</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>610017233</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>610018600</v>
       </c>
@@ -12741,7 +12744,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>610018730</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>610021220</v>
       </c>
@@ -12775,7 +12778,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>610022591</v>
       </c>
@@ -12792,7 +12795,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>610022992</v>
       </c>
@@ -12809,7 +12812,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>610025511</v>
       </c>
@@ -12826,7 +12829,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>620001113</v>
       </c>
@@ -12843,7 +12846,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>620001500</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>620001637</v>
       </c>
@@ -12877,7 +12880,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>620002430</v>
       </c>
@@ -12894,7 +12897,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>620002966</v>
       </c>
@@ -12911,7 +12914,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>620003353</v>
       </c>
@@ -12928,7 +12931,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>630000874</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>630001244</v>
       </c>
@@ -12962,7 +12965,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>630001872</v>
       </c>
@@ -12979,7 +12982,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>630001977</v>
       </c>
@@ -12996,7 +12999,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>630002001</v>
       </c>
@@ -13013,7 +13016,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>630002489</v>
       </c>
@@ -13030,7 +13033,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>630002600</v>
       </c>
@@ -13047,7 +13050,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>630003100</v>
       </c>
@@ -13064,7 +13067,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>630004088</v>
       </c>
@@ -13081,7 +13084,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>630004734</v>
       </c>
@@ -13098,7 +13101,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>630005610</v>
       </c>
@@ -13115,7 +13118,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>630005953</v>
       </c>
@@ -13132,7 +13135,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>630005957</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>630006473</v>
       </c>
@@ -13166,7 +13169,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>630010083</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>630012245</v>
       </c>
@@ -13200,7 +13203,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>640000026</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>650000488</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>650000643</v>
       </c>
@@ -13251,7 +13254,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>670000672</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>670000829</v>
       </c>
@@ -13285,7 +13288,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>670000864</v>
       </c>
@@ -13302,7 +13305,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>670000960</v>
       </c>
@@ -13319,7 +13322,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>670001877</v>
       </c>
@@ -13336,7 +13339,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>670001963</v>
       </c>
@@ -13353,7 +13356,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>670003130</v>
       </c>
@@ -13370,7 +13373,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>670003662</v>
       </c>
@@ -13387,7 +13390,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>670003806</v>
       </c>
@@ -13404,7 +13407,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>670005427</v>
       </c>
@@ -13421,7 +13424,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>670005540</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>670006064</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>670007273</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>670007301</v>
       </c>
@@ -13489,7 +13492,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>670007676</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>670008348</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>670008692</v>
       </c>
@@ -13540,7 +13543,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>670014180</v>
       </c>
@@ -13557,7 +13560,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>670017029</v>
       </c>
@@ -13574,7 +13577,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>670021515</v>
       </c>
@@ -13591,7 +13594,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>680001353</v>
       </c>
@@ -13608,7 +13611,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>680001413</v>
       </c>
@@ -13625,7 +13628,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>680001860</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>680002732</v>
       </c>
@@ -13659,7 +13662,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>680003035</v>
       </c>
@@ -13676,7 +13679,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>680003180</v>
       </c>
@@ -13693,7 +13696,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>680004031</v>
       </c>
@@ -13710,7 +13713,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>680004084</v>
       </c>
@@ -13727,7 +13730,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>680004251</v>
       </c>
@@ -13744,7 +13747,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>680004262</v>
       </c>
@@ -13761,7 +13764,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>680004731</v>
       </c>
@@ -13778,7 +13781,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>680005202</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>680005592</v>
       </c>
@@ -13812,7 +13815,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>680005795</v>
       </c>
@@ -13829,7 +13832,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>680007934</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>680007970</v>
       </c>
@@ -13863,7 +13866,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>680008224</v>
       </c>
@@ -13880,7 +13883,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>680008547</v>
       </c>
@@ -13897,7 +13900,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>680009124</v>
       </c>
@@ -13914,7 +13917,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>680009340</v>
       </c>
@@ -13931,7 +13934,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>680009350</v>
       </c>
@@ -13948,7 +13951,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>680009528</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>680010011</v>
       </c>
@@ -13982,7 +13985,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>680011846</v>
       </c>
@@ -13999,7 +14002,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>680011899</v>
       </c>
@@ -14016,7 +14019,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>680011918</v>
       </c>
@@ -14033,7 +14036,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>680011919</v>
       </c>
@@ -14050,7 +14053,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>680011941</v>
       </c>
@@ -14067,7 +14070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>680012796</v>
       </c>
@@ -14084,7 +14087,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>680013173</v>
       </c>
@@ -14101,7 +14104,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>680013560</v>
       </c>
@@ -14118,7 +14121,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>680014191</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>680014762</v>
       </c>
@@ -14152,7 +14155,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>680014897</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>680015051</v>
       </c>
@@ -14186,7 +14189,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>680015190</v>
       </c>
@@ -14203,7 +14206,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>680015550</v>
       </c>
@@ -14220,7 +14223,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>680016967</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>680018969</v>
       </c>
@@ -14254,7 +14257,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>680020345</v>
       </c>
@@ -14271,7 +14274,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>680021623</v>
       </c>
@@ -14288,7 +14291,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>680021729</v>
       </c>
@@ -14305,7 +14308,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>680022714</v>
       </c>
@@ -14322,7 +14325,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>680026953</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>680028237</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>680028269</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>680030356</v>
       </c>
@@ -14390,7 +14393,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>680032193</v>
       </c>
@@ -14407,7 +14410,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>680033126</v>
       </c>
@@ -14424,7 +14427,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>680033759</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>680037956</v>
       </c>
@@ -14458,7 +14461,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>680041844</v>
       </c>
@@ -14475,7 +14478,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>680048049</v>
       </c>
@@ -14492,7 +14495,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>690000293</v>
       </c>
@@ -14509,7 +14512,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>690001410</v>
       </c>
@@ -14526,7 +14529,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>710000812</v>
       </c>
@@ -14543,7 +14546,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>710001194</v>
       </c>
@@ -14560,7 +14563,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>710001229</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>710001230</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>710001308</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>710001598</v>
       </c>
@@ -14628,7 +14631,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>710001966</v>
       </c>
@@ -14645,7 +14648,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>710003554</v>
       </c>
@@ -14662,7 +14665,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>730001616</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>730001645</v>
       </c>
@@ -14696,7 +14699,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>730002157</v>
       </c>
@@ -14713,7 +14716,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>730002320</v>
       </c>
@@ -14730,7 +14733,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>730003238</v>
       </c>
@@ -14747,7 +14750,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>730003463</v>
       </c>
@@ -14764,7 +14767,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>730004306</v>
       </c>
@@ -14781,7 +14784,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>730004741</v>
       </c>
@@ -14798,7 +14801,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>730005657</v>
       </c>
@@ -14815,7 +14818,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>730006256</v>
       </c>
@@ -14832,7 +14835,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>730006480</v>
       </c>
@@ -14849,7 +14852,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>730006813</v>
       </c>
@@ -14866,7 +14869,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>730006879</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>730007144</v>
       </c>
@@ -14900,7 +14903,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>730007300</v>
       </c>
@@ -14917,7 +14920,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>730007432</v>
       </c>
@@ -14934,7 +14937,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>730007522</v>
       </c>
@@ -14951,7 +14954,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>730008353</v>
       </c>
@@ -14968,7 +14971,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>730008372</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>730008403</v>
       </c>
@@ -15002,7 +15005,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>730008798</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>730008896</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>730009206</v>
       </c>
@@ -15053,7 +15056,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>730009655</v>
       </c>
@@ -15070,7 +15073,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>730009972</v>
       </c>
@@ -15087,7 +15090,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>730010098</v>
       </c>
@@ -15104,7 +15107,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>730011161</v>
       </c>
@@ -15121,7 +15124,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>730011604</v>
       </c>
@@ -15138,7 +15141,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>730011853</v>
       </c>
@@ -15155,7 +15158,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>730011945</v>
       </c>
@@ -15172,7 +15175,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>730012564</v>
       </c>
@@ -15189,7 +15192,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>730012589</v>
       </c>
@@ -15206,7 +15209,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>730013157</v>
       </c>
@@ -15223,7 +15226,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>730013483</v>
       </c>
@@ -15240,7 +15243,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>730013484</v>
       </c>
@@ -15257,7 +15260,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>730013901</v>
       </c>
@@ -15274,7 +15277,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>730013902</v>
       </c>
@@ -15291,7 +15294,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>730014012</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>730014293</v>
       </c>
@@ -15325,7 +15328,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>730014624</v>
       </c>
@@ -15342,7 +15345,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>730014657</v>
       </c>
@@ -15359,7 +15362,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>730014711</v>
       </c>
@@ -15376,7 +15379,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>730015329</v>
       </c>
@@ -15393,7 +15396,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>730015345</v>
       </c>
@@ -15410,7 +15413,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>730015390</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>730015569</v>
       </c>
@@ -15444,7 +15447,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>730015802</v>
       </c>
@@ -15461,7 +15464,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>730016152</v>
       </c>
@@ -15478,7 +15481,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>730016502</v>
       </c>
@@ -15495,7 +15498,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>730017279</v>
       </c>
@@ -15512,7 +15515,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>730018109</v>
       </c>
@@ -15529,7 +15532,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>730019023</v>
       </c>
@@ -15546,7 +15549,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>730019093</v>
       </c>
@@ -15563,7 +15566,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>730019503</v>
       </c>
@@ -15580,7 +15583,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>730021227</v>
       </c>
@@ -15597,7 +15600,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>730021356</v>
       </c>
@@ -15614,7 +15617,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>730021379</v>
       </c>
@@ -15631,7 +15634,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>730022046</v>
       </c>
@@ -15648,7 +15651,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>730022248</v>
       </c>
@@ -15665,7 +15668,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>730022634</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>730029237</v>
       </c>
@@ -15699,7 +15702,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>730031738</v>
       </c>
@@ -15716,7 +15719,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>730035980</v>
       </c>
@@ -15733,7 +15736,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>730036386</v>
       </c>
@@ -15750,7 +15753,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>730042409</v>
       </c>
@@ -15767,7 +15770,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>730046386</v>
       </c>
@@ -15784,7 +15787,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>740000608</v>
       </c>
@@ -15801,7 +15804,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>740000780</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>740000828</v>
       </c>
@@ -15835,7 +15838,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>750003910</v>
       </c>
@@ -15852,7 +15855,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>750010492</v>
       </c>
@@ -15869,7 +15872,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>750013615</v>
       </c>
@@ -15886,7 +15889,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>750013796</v>
       </c>
@@ -15903,7 +15906,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>750015248</v>
       </c>
@@ -15920,7 +15923,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>750016339</v>
       </c>
@@ -15937,7 +15940,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>750036471</v>
       </c>
@@ -15954,7 +15957,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>750037218</v>
       </c>
@@ -15971,7 +15974,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>750054253</v>
       </c>
@@ -15988,7 +15991,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>750054639</v>
       </c>
@@ -16005,7 +16008,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>750055943</v>
       </c>
@@ -16022,7 +16025,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>750060855</v>
       </c>
@@ -16039,7 +16042,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>750061736</v>
       </c>
@@ -16056,7 +16059,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>750068349</v>
       </c>
@@ -16073,7 +16076,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>750070173</v>
       </c>
@@ -16090,7 +16093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>750070640</v>
       </c>
@@ -16107,7 +16110,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>750075273</v>
       </c>
@@ -16124,7 +16127,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>750080392</v>
       </c>
@@ -16141,7 +16144,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>750080798</v>
       </c>
@@ -16158,7 +16161,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>750081133</v>
       </c>
@@ -16175,7 +16178,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>750086116</v>
       </c>
@@ -16192,7 +16195,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>750086219</v>
       </c>
@@ -16209,7 +16212,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>750089926</v>
       </c>
@@ -16226,7 +16229,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>750092730</v>
       </c>
@@ -16243,7 +16246,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>750097208</v>
       </c>
@@ -16260,7 +16263,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>750097991</v>
       </c>
@@ -16277,7 +16280,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>750102024</v>
       </c>
@@ -16294,7 +16297,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>750104052</v>
       </c>
@@ -16311,7 +16314,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>750105352</v>
       </c>
@@ -16328,7 +16331,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>750105874</v>
       </c>
@@ -16345,7 +16348,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>750118657</v>
       </c>
@@ -16362,7 +16365,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>750121328</v>
       </c>
@@ -16379,7 +16382,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>750123334</v>
       </c>
@@ -16396,7 +16399,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>750130166</v>
       </c>
@@ -16413,7 +16416,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>750136936</v>
       </c>
@@ -16430,7 +16433,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>750140494</v>
       </c>
@@ -16447,7 +16450,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>750142067</v>
       </c>
@@ -16464,7 +16467,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>750143398</v>
       </c>
@@ -16481,7 +16484,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>750145996</v>
       </c>
@@ -16498,7 +16501,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>750161763</v>
       </c>
@@ -16515,7 +16518,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>750166222</v>
       </c>
@@ -16532,7 +16535,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>750169877</v>
       </c>
@@ -16549,7 +16552,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>750173853</v>
       </c>
@@ -16566,7 +16569,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>750174891</v>
       </c>
@@ -16583,7 +16586,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>750185543</v>
       </c>
@@ -16600,7 +16603,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>750186222</v>
       </c>
@@ -16617,7 +16620,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>750191214</v>
       </c>
@@ -16634,7 +16637,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>750192705</v>
       </c>
@@ -16651,7 +16654,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>750202663</v>
       </c>
@@ -16668,7 +16671,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>750203061</v>
       </c>
@@ -16685,7 +16688,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>750205256</v>
       </c>
@@ -16702,7 +16705,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>750214192</v>
       </c>
@@ -16719,7 +16722,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>750225406</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>750245930</v>
       </c>
@@ -16753,7 +16756,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>750250182</v>
       </c>
@@ -16770,7 +16773,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>750252585</v>
       </c>
@@ -16787,7 +16790,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>750254908</v>
       </c>
@@ -16804,7 +16807,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>750256801</v>
       </c>
@@ -16821,7 +16824,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>750258657</v>
       </c>
@@ -16838,7 +16841,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>750264727</v>
       </c>
@@ -16855,7 +16858,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>750265163</v>
       </c>
@@ -16872,7 +16875,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>750270320</v>
       </c>
@@ -16889,7 +16892,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>750271193</v>
       </c>
@@ -16906,7 +16909,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>750277770</v>
       </c>
@@ -16923,7 +16926,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>750283546</v>
       </c>
@@ -16940,7 +16943,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>750283624</v>
       </c>
@@ -16957,7 +16960,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>750285641</v>
       </c>
@@ -16974,7 +16977,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>750289737</v>
       </c>
@@ -16991,7 +16994,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>750290464</v>
       </c>
@@ -17008,7 +17011,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>750293522</v>
       </c>
@@ -17025,7 +17028,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>750293549</v>
       </c>
@@ -17042,7 +17045,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>750296825</v>
       </c>
@@ -17059,7 +17062,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>750302462</v>
       </c>
@@ -17076,7 +17079,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>750303566</v>
       </c>
@@ -17093,7 +17096,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>750304787</v>
       </c>
@@ -17110,7 +17113,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>750306861</v>
       </c>
@@ -17127,7 +17130,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>750314936</v>
       </c>
@@ -17144,7 +17147,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>750323075</v>
       </c>
@@ -17161,7 +17164,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>750323897</v>
       </c>
@@ -17178,7 +17181,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>750324685</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>750326363</v>
       </c>
@@ -17212,7 +17215,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>750326494</v>
       </c>
@@ -17229,7 +17232,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>750326504</v>
       </c>
@@ -17246,7 +17249,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>750329930</v>
       </c>
@@ -17263,7 +17266,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>750336676</v>
       </c>
@@ -17280,7 +17283,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>750343817</v>
       </c>
@@ -17297,7 +17300,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>750344427</v>
       </c>
@@ -17314,7 +17317,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>750346149</v>
       </c>
@@ -17331,7 +17334,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>750346461</v>
       </c>
@@ -17348,7 +17351,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>750346699</v>
       </c>
@@ -17365,7 +17368,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>750360207</v>
       </c>
@@ -17382,7 +17385,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>750366261</v>
       </c>
@@ -17399,7 +17402,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>750369457</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>750375083</v>
       </c>
@@ -17433,7 +17436,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>750379006</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>750379084</v>
       </c>
@@ -17467,7 +17470,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>750381930</v>
       </c>
@@ -17484,7 +17487,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>750382531</v>
       </c>
@@ -17501,7 +17504,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>750383321</v>
       </c>
@@ -17518,7 +17521,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>750385159</v>
       </c>
@@ -17535,7 +17538,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>750386766</v>
       </c>
@@ -17552,7 +17555,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>750386769</v>
       </c>
@@ -17569,7 +17572,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>750389379</v>
       </c>
@@ -17586,7 +17589,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>750394788</v>
       </c>
@@ -17603,7 +17606,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>750395207</v>
       </c>
@@ -17620,7 +17623,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>750397321</v>
       </c>
@@ -17637,7 +17640,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>750397349</v>
       </c>
@@ -17654,7 +17657,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>750397716</v>
       </c>
@@ -17671,7 +17674,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>750398494</v>
       </c>
@@ -17688,7 +17691,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>750399457</v>
       </c>
@@ -17705,7 +17708,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>750401004</v>
       </c>
@@ -17722,7 +17725,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>750405112</v>
       </c>
@@ -17739,7 +17742,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>750406118</v>
       </c>
@@ -17756,7 +17759,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>750406726</v>
       </c>
@@ -17773,7 +17776,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>750417788</v>
       </c>
@@ -17790,7 +17793,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>750418373</v>
       </c>
@@ -17807,7 +17810,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>750419144</v>
       </c>
@@ -17824,7 +17827,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>750419352</v>
       </c>
@@ -17841,7 +17844,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>750419494</v>
       </c>
@@ -17858,7 +17861,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>750421742</v>
       </c>
@@ -17875,7 +17878,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>750422038</v>
       </c>
@@ -17892,7 +17895,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>750423680</v>
       </c>
@@ -17909,7 +17912,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>750428998</v>
       </c>
@@ -17926,7 +17929,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>750430676</v>
       </c>
@@ -17943,7 +17946,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>750430746</v>
       </c>
@@ -17960,7 +17963,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>750431517</v>
       </c>
@@ -17977,7 +17980,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>750432988</v>
       </c>
@@ -17994,7 +17997,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>750434909</v>
       </c>
@@ -18011,7 +18014,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>750438636</v>
       </c>
@@ -18028,7 +18031,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>750441945</v>
       </c>
@@ -18045,7 +18048,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>750442921</v>
       </c>
@@ -18062,7 +18065,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>750443343</v>
       </c>
@@ -18079,7 +18082,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>750444583</v>
       </c>
@@ -18096,7 +18099,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>750445970</v>
       </c>
@@ -18113,7 +18116,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>750449121</v>
       </c>
@@ -18130,7 +18133,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>750451702</v>
       </c>
@@ -18147,7 +18150,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>750455320</v>
       </c>
@@ -18164,7 +18167,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>750457513</v>
       </c>
@@ -18181,7 +18184,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>750458174</v>
       </c>
@@ -18198,7 +18201,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>750461592</v>
       </c>
@@ -18215,7 +18218,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>750461820</v>
       </c>
@@ -18232,7 +18235,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>750468364</v>
       </c>
@@ -18249,7 +18252,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>750475756</v>
       </c>
@@ -18266,7 +18269,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>750476607</v>
       </c>
@@ -18283,7 +18286,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>750477679</v>
       </c>
@@ -18300,7 +18303,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>750494920</v>
       </c>
@@ -18317,7 +18320,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>750501295</v>
       </c>
@@ -18334,7 +18337,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>750512456</v>
       </c>
@@ -18351,7 +18354,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>750514486</v>
       </c>
@@ -18368,7 +18371,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>750515631</v>
       </c>
@@ -18385,7 +18388,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>750516173</v>
       </c>
@@ -18402,7 +18405,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>750520162</v>
       </c>
@@ -18419,7 +18422,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>750524849</v>
       </c>
@@ -18436,7 +18439,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>750540605</v>
       </c>
@@ -18453,7 +18456,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>750545889</v>
       </c>
@@ -18470,7 +18473,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>750552285</v>
       </c>
@@ -18487,7 +18490,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>750555651</v>
       </c>
@@ -18504,7 +18507,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>750559514</v>
       </c>
@@ -18521,7 +18524,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>750560001</v>
       </c>
@@ -18538,7 +18541,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>750562727</v>
       </c>
@@ -18555,7 +18558,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>750572698</v>
       </c>
@@ -18572,7 +18575,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>750586786</v>
       </c>
@@ -18589,7 +18592,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>750588429</v>
       </c>
@@ -18606,7 +18609,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>750589526</v>
       </c>
@@ -18623,7 +18626,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>750590121</v>
       </c>
@@ -18640,7 +18643,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>750591674</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>750595971</v>
       </c>
@@ -18674,7 +18677,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>750602260</v>
       </c>
@@ -18691,7 +18694,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>750622105</v>
       </c>
@@ -18708,7 +18711,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>750622294</v>
       </c>
@@ -18725,7 +18728,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>750630246</v>
       </c>
@@ -18742,7 +18745,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>750630405</v>
       </c>
@@ -18759,7 +18762,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>750641165</v>
       </c>
@@ -18776,7 +18779,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>750642364</v>
       </c>
@@ -18793,7 +18796,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>750644395</v>
       </c>
@@ -18810,7 +18813,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>750645212</v>
       </c>
@@ -18827,7 +18830,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>750645715</v>
       </c>
@@ -18844,7 +18847,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>750646634</v>
       </c>
@@ -18861,7 +18864,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>750648988</v>
       </c>
@@ -18878,7 +18881,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>750651551</v>
       </c>
@@ -18895,7 +18898,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>750657591</v>
       </c>
@@ -18912,7 +18915,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>750662105</v>
       </c>
@@ -18929,7 +18932,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>750662824</v>
       </c>
@@ -18946,7 +18949,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>750669565</v>
       </c>
@@ -18963,7 +18966,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>750670453</v>
       </c>
@@ -18980,7 +18983,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>750671692</v>
       </c>
@@ -18997,7 +19000,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>750675792</v>
       </c>
@@ -19014,7 +19017,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>750676263</v>
       </c>
@@ -19031,7 +19034,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>750676697</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>750677912</v>
       </c>
@@ -19065,7 +19068,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>750687079</v>
       </c>
@@ -19082,7 +19085,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>750687431</v>
       </c>
@@ -19099,7 +19102,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>750689517</v>
       </c>
@@ -19116,7 +19119,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>750690246</v>
       </c>
@@ -19133,7 +19136,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>750690590</v>
       </c>
@@ -19150,7 +19153,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>750692134</v>
       </c>
@@ -19167,7 +19170,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>750692413</v>
       </c>
@@ -19184,7 +19187,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>750692480</v>
       </c>
@@ -19201,7 +19204,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>750696409</v>
       </c>
@@ -19218,7 +19221,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>750696767</v>
       </c>
@@ -19235,7 +19238,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>750697448</v>
       </c>
@@ -19252,7 +19255,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>750697586</v>
       </c>
@@ -19269,7 +19272,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>750699489</v>
       </c>
@@ -19286,7 +19289,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>750700734</v>
       </c>
@@ -19303,7 +19306,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>750702166</v>
       </c>
@@ -19320,7 +19323,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>750703242</v>
       </c>
@@ -19337,7 +19340,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>750703841</v>
       </c>
@@ -19354,7 +19357,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>750707073</v>
       </c>
@@ -19371,7 +19374,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>750708003</v>
       </c>
@@ -19388,7 +19391,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>750708445</v>
       </c>
@@ -19405,7 +19408,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>750708739</v>
       </c>
@@ -19422,7 +19425,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>750708916</v>
       </c>
@@ -19439,7 +19442,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>750709134</v>
       </c>
@@ -19456,7 +19459,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>750709408</v>
       </c>
@@ -19473,7 +19476,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>750709502</v>
       </c>
@@ -19490,7 +19493,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>750711560</v>
       </c>
@@ -19507,7 +19510,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>750711720</v>
       </c>
@@ -19524,7 +19527,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>750713326</v>
       </c>
@@ -19541,7 +19544,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>750714573</v>
       </c>
@@ -19558,7 +19561,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>750716062</v>
       </c>
@@ -19575,7 +19578,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>750716560</v>
       </c>
@@ -19592,7 +19595,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>750716839</v>
       </c>
@@ -19609,7 +19612,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>750717549</v>
       </c>
@@ -19626,7 +19629,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>750719354</v>
       </c>
@@ -19643,7 +19646,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>750719541</v>
       </c>
@@ -19660,7 +19663,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>750721106</v>
       </c>
@@ -19677,7 +19680,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>750721551</v>
       </c>
@@ -19694,7 +19697,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>750722644</v>
       </c>
@@ -19711,7 +19714,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>750723897</v>
       </c>
@@ -19728,7 +19731,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>750723958</v>
       </c>
@@ -19745,7 +19748,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>750725217</v>
       </c>
@@ -19762,7 +19765,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>750728591</v>
       </c>
@@ -19779,7 +19782,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>750731340</v>
       </c>
@@ -19796,7 +19799,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>750731689</v>
       </c>
@@ -19813,7 +19816,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>750733901</v>
       </c>
@@ -19830,7 +19833,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>750735539</v>
       </c>
@@ -19847,7 +19850,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>750739648</v>
       </c>
@@ -19864,7 +19867,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>750741071</v>
       </c>
@@ -19881,7 +19884,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>750746468</v>
       </c>
@@ -19898,7 +19901,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>750747060</v>
       </c>
@@ -19915,7 +19918,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>750747123</v>
       </c>
@@ -19932,7 +19935,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>750747181</v>
       </c>
@@ -19949,7 +19952,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>750747267</v>
       </c>
@@ -19966,7 +19969,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>750747741</v>
       </c>
@@ -19983,7 +19986,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>750747938</v>
       </c>
@@ -20000,7 +20003,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>750747941</v>
       </c>
@@ -20017,7 +20020,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>750748113</v>
       </c>
@@ -20034,7 +20037,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>750748204</v>
       </c>
@@ -20051,7 +20054,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>750748648</v>
       </c>
@@ -20068,7 +20071,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>750749689</v>
       </c>
@@ -20085,7 +20088,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>750749693</v>
       </c>
@@ -20102,7 +20105,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>750749699</v>
       </c>
@@ -20119,7 +20122,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>750749848</v>
       </c>
@@ -20136,7 +20139,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>750750146</v>
       </c>
@@ -20153,7 +20156,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>750750210</v>
       </c>
@@ -20170,7 +20173,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>750750811</v>
       </c>
@@ -20187,7 +20190,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>750751916</v>
       </c>
@@ -20204,7 +20207,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>750752598</v>
       </c>
@@ -20221,7 +20224,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>750752867</v>
       </c>
@@ -20238,7 +20241,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>750755559</v>
       </c>
@@ -20255,7 +20258,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>750755611</v>
       </c>
@@ -20272,7 +20275,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>750755937</v>
       </c>
@@ -20289,7 +20292,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>750757338</v>
       </c>
@@ -20306,7 +20309,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>750757612</v>
       </c>
@@ -20323,7 +20326,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>750758437</v>
       </c>
@@ -20340,7 +20343,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>750759293</v>
       </c>
@@ -20357,7 +20360,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>750759942</v>
       </c>
@@ -20374,7 +20377,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>750760052</v>
       </c>
@@ -20391,7 +20394,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>750760862</v>
       </c>
@@ -20408,7 +20411,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>750760971</v>
       </c>
@@ -20425,7 +20428,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>750761041</v>
       </c>
@@ -20442,7 +20445,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>750761438</v>
       </c>
@@ -20459,7 +20462,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>750762025</v>
       </c>
@@ -20476,7 +20479,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>750764495</v>
       </c>
@@ -20493,7 +20496,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>750764562</v>
       </c>
@@ -20510,7 +20513,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>750764865</v>
       </c>
@@ -20527,7 +20530,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>750764974</v>
       </c>
@@ -20544,7 +20547,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>750765097</v>
       </c>
@@ -20561,7 +20564,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>750765299</v>
       </c>
@@ -20578,7 +20581,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>750765651</v>
       </c>
@@ -20595,7 +20598,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>750765821</v>
       </c>
@@ -20612,7 +20615,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>750765867</v>
       </c>
@@ -20629,7 +20632,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>750765939</v>
       </c>
@@ -20646,7 +20649,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>750768596</v>
       </c>
@@ -20663,7 +20666,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>750768827</v>
       </c>
@@ -20680,7 +20683,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>750769754</v>
       </c>
@@ -20697,7 +20700,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>750769764</v>
       </c>
@@ -20714,7 +20717,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>750769899</v>
       </c>
@@ -20731,7 +20734,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>750771332</v>
       </c>
@@ -20748,7 +20751,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>750772621</v>
       </c>
@@ -20765,7 +20768,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>750772953</v>
       </c>
@@ -20782,7 +20785,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>750775273</v>
       </c>
@@ -20799,7 +20802,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>750776160</v>
       </c>
@@ -20816,7 +20819,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>750776262</v>
       </c>
@@ -20833,7 +20836,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>750780026</v>
       </c>
@@ -20850,7 +20853,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>750783767</v>
       </c>
@@ -20867,7 +20870,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>750785571</v>
       </c>
@@ -20884,7 +20887,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>750787339</v>
       </c>
@@ -20901,7 +20904,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>750788613</v>
       </c>
@@ -20918,7 +20921,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>750791403</v>
       </c>
@@ -20935,7 +20938,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>750792562</v>
       </c>
@@ -20952,7 +20955,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>750793422</v>
       </c>
@@ -20969,7 +20972,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>750794113</v>
       </c>
@@ -20986,7 +20989,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>750794184</v>
       </c>
@@ -21003,7 +21006,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>750794593</v>
       </c>
@@ -21020,7 +21023,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>750795156</v>
       </c>
@@ -21037,7 +21040,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>750796148</v>
       </c>
@@ -21054,7 +21057,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>750796702</v>
       </c>
@@ -21071,7 +21074,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>750797170</v>
       </c>
@@ -21088,7 +21091,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>750797278</v>
       </c>
@@ -21105,7 +21108,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>750797346</v>
       </c>
@@ -21122,7 +21125,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>750797871</v>
       </c>
@@ -21139,7 +21142,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>750797944</v>
       </c>
@@ -21156,7 +21159,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>750797980</v>
       </c>
@@ -21173,7 +21176,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>750798475</v>
       </c>
@@ -21190,7 +21193,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>750800516</v>
       </c>
@@ -21207,7 +21210,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>750800525</v>
       </c>
@@ -21224,7 +21227,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>750801021</v>
       </c>
@@ -21241,7 +21244,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>750801202</v>
       </c>
@@ -21258,7 +21261,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>750801290</v>
       </c>
@@ -21275,7 +21278,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>750801933</v>
       </c>
@@ -21292,7 +21295,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>750803774</v>
       </c>
@@ -21309,7 +21312,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>750804842</v>
       </c>
@@ -21326,7 +21329,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>750804849</v>
       </c>
@@ -21343,7 +21346,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>750805202</v>
       </c>
@@ -21360,7 +21363,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>750805203</v>
       </c>
@@ -21377,7 +21380,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>750805397</v>
       </c>
@@ -21394,7 +21397,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>750805630</v>
       </c>
@@ -21411,7 +21414,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>750805685</v>
       </c>
@@ -21428,7 +21431,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>750805721</v>
       </c>
@@ -21445,7 +21448,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>750806686</v>
       </c>
@@ -21462,7 +21465,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>750807461</v>
       </c>
@@ -21479,7 +21482,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>750807612</v>
       </c>
@@ -21496,7 +21499,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>750807665</v>
       </c>
@@ -21513,7 +21516,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>750808964</v>
       </c>
@@ -21530,7 +21533,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>750809296</v>
       </c>
@@ -21547,7 +21550,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>750809485</v>
       </c>
@@ -21564,7 +21567,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>750810015</v>
       </c>
@@ -21581,7 +21584,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>750810544</v>
       </c>
@@ -21598,7 +21601,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>750810643</v>
       </c>
@@ -21615,7 +21618,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>750810662</v>
       </c>
@@ -21632,7 +21635,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>750810685</v>
       </c>
@@ -21649,7 +21652,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>750811477</v>
       </c>
@@ -21666,7 +21669,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>750811686</v>
       </c>
@@ -21683,7 +21686,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>750812231</v>
       </c>
@@ -21700,7 +21703,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>750813136</v>
       </c>
@@ -21717,7 +21720,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>750814151</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>750815251</v>
       </c>
@@ -21751,7 +21754,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>750819755</v>
       </c>
@@ -21768,7 +21771,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>750820157</v>
       </c>
@@ -21785,7 +21788,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>750820722</v>
       </c>
@@ -21802,7 +21805,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>750823818</v>
       </c>
@@ -21819,7 +21822,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>750834213</v>
       </c>
@@ -21836,7 +21839,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>750834701</v>
       </c>
@@ -21853,7 +21856,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>750836331</v>
       </c>
@@ -21870,7 +21873,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>750838432</v>
       </c>
@@ -21887,7 +21890,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>750838579</v>
       </c>
@@ -21904,7 +21907,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>750839360</v>
       </c>
@@ -21921,7 +21924,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>750842297</v>
       </c>
@@ -21938,7 +21941,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>750842362</v>
       </c>
@@ -21955,7 +21958,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>750843571</v>
       </c>
@@ -21972,7 +21975,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>750844249</v>
       </c>
@@ -21989,7 +21992,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>750844253</v>
       </c>
@@ -22006,7 +22009,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>750844356</v>
       </c>
@@ -22023,7 +22026,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>750844843</v>
       </c>
@@ -22040,7 +22043,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>750845133</v>
       </c>
@@ -22057,7 +22060,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>750845939</v>
       </c>
@@ -22074,7 +22077,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>750846597</v>
       </c>
@@ -22091,7 +22094,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>750846717</v>
       </c>
@@ -22108,7 +22111,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>750847672</v>
       </c>
@@ -22125,7 +22128,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>750847833</v>
       </c>
@@ -22142,7 +22145,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>750848664</v>
       </c>
@@ -22159,7 +22162,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>750850438</v>
       </c>
@@ -22176,7 +22179,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>750851137</v>
       </c>
@@ -22193,7 +22196,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>750851255</v>
       </c>
@@ -22210,7 +22213,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>750851563</v>
       </c>
@@ -22227,7 +22230,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750851567</v>
       </c>
@@ -22244,7 +22247,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>750851658</v>
       </c>
@@ -22261,7 +22264,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>750852910</v>
       </c>
@@ -22278,7 +22281,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>750852911</v>
       </c>
@@ -22295,7 +22298,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>750852917</v>
       </c>
@@ -22312,7 +22315,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>750853013</v>
       </c>
@@ -22329,7 +22332,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>750853485</v>
       </c>
@@ -22346,7 +22349,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>750854107</v>
       </c>
@@ -22363,7 +22366,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>750854177</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>750854232</v>
       </c>
@@ -22397,7 +22400,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>750855210</v>
       </c>
@@ -22414,7 +22417,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>750856467</v>
       </c>
@@ -22431,7 +22434,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>750856473</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>750857336</v>
       </c>
@@ -22465,7 +22468,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>750862034</v>
       </c>
@@ -22482,7 +22485,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>750864548</v>
       </c>
@@ -22499,7 +22502,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>750865093</v>
       </c>
@@ -22516,7 +22519,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>750865921</v>
       </c>
@@ -22533,7 +22536,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>750865977</v>
       </c>
@@ -22550,7 +22553,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>750867488</v>
       </c>
@@ -22567,7 +22570,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>750868182</v>
       </c>
@@ -22584,7 +22587,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>750871952</v>
       </c>
@@ -22601,7 +22604,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>750873219</v>
       </c>
@@ -22618,7 +22621,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>750875488</v>
       </c>
@@ -22635,7 +22638,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>750880658</v>
       </c>
@@ -22652,7 +22655,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>750884879</v>
       </c>
@@ -22669,7 +22672,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>750886925</v>
       </c>
@@ -22686,7 +22689,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>750887793</v>
       </c>
@@ -22703,7 +22706,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>750893627</v>
       </c>
@@ -22720,7 +22723,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>750893791</v>
       </c>
@@ -22737,7 +22740,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>750894182</v>
       </c>
@@ -22754,7 +22757,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>750894507</v>
       </c>
@@ -22771,7 +22774,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>750895347</v>
       </c>
@@ -22788,7 +22791,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>750896124</v>
       </c>
@@ -22805,7 +22808,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>750896232</v>
       </c>
@@ -22822,7 +22825,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>750896506</v>
       </c>
@@ -22839,7 +22842,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>750896969</v>
       </c>
@@ -22856,7 +22859,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>750897189</v>
       </c>
@@ -22873,7 +22876,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>750897789</v>
       </c>
@@ -22890,7 +22893,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>750897863</v>
       </c>
@@ -22907,7 +22910,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>750897873</v>
       </c>
@@ -22924,7 +22927,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>750897984</v>
       </c>
@@ -22941,7 +22944,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>750899369</v>
       </c>
@@ -22958,7 +22961,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>750899609</v>
       </c>
@@ -22975,7 +22978,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>750899787</v>
       </c>
@@ -22992,7 +22995,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>750900254</v>
       </c>
@@ -23009,7 +23012,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>750900842</v>
       </c>
@@ -23026,7 +23029,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>750900920</v>
       </c>
@@ -23043,7 +23046,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>750901135</v>
       </c>
@@ -23060,7 +23063,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>750901234</v>
       </c>
@@ -23077,7 +23080,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>750902516</v>
       </c>
@@ -23094,7 +23097,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>750903011</v>
       </c>
@@ -23111,7 +23114,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>750903735</v>
       </c>
@@ -23128,7 +23131,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>750904302</v>
       </c>
@@ -23145,7 +23148,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>750904883</v>
       </c>
@@ -23162,7 +23165,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>750905127</v>
       </c>
@@ -23179,7 +23182,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>750905528</v>
       </c>
@@ -23196,7 +23199,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>750905839</v>
       </c>
@@ -23213,7 +23216,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>750905989</v>
       </c>
@@ -23230,7 +23233,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>750906070</v>
       </c>
@@ -23247,7 +23250,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>750906220</v>
       </c>
@@ -23264,7 +23267,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>750906730</v>
       </c>
@@ -23281,7 +23284,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>750906759</v>
       </c>
@@ -23298,7 +23301,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>750906932</v>
       </c>
@@ -23315,7 +23318,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>750907554</v>
       </c>
@@ -23332,7 +23335,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>750907973</v>
       </c>
@@ -23349,7 +23352,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>750908477</v>
       </c>
@@ -23366,7 +23369,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>750908531</v>
       </c>
@@ -23383,7 +23386,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>750908595</v>
       </c>
@@ -23400,7 +23403,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>750908884</v>
       </c>
@@ -23417,7 +23420,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>750908898</v>
       </c>
@@ -23434,7 +23437,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>750909091</v>
       </c>
@@ -23451,7 +23454,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>750909183</v>
       </c>
@@ -23468,7 +23471,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>750909204</v>
       </c>
@@ -23485,7 +23488,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>750909349</v>
       </c>
@@ -23502,7 +23505,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>750909814</v>
       </c>
@@ -23519,7 +23522,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>750910568</v>
       </c>
@@ -23536,7 +23539,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>750910654</v>
       </c>
@@ -23553,7 +23556,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>750910726</v>
       </c>
@@ -23570,7 +23573,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>750911065</v>
       </c>
@@ -23587,7 +23590,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>750911355</v>
       </c>
@@ -23604,7 +23607,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>750911412</v>
       </c>
@@ -23621,7 +23624,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>750912237</v>
       </c>
@@ -23638,7 +23641,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>750912432</v>
       </c>
@@ -23655,7 +23658,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>750912452</v>
       </c>
@@ -23672,7 +23675,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>750912456</v>
       </c>
@@ -23689,7 +23692,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>750914073</v>
       </c>
@@ -23706,7 +23709,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>750917636</v>
       </c>
@@ -23723,7 +23726,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>750917848</v>
       </c>
@@ -23740,7 +23743,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>750919149</v>
       </c>
@@ -23757,7 +23760,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>750919662</v>
       </c>
@@ -23774,7 +23777,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>750920754</v>
       </c>
@@ -23791,7 +23794,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>750921351</v>
       </c>
@@ -23808,7 +23811,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>750921746</v>
       </c>
@@ -23825,7 +23828,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>750921961</v>
       </c>
@@ -23842,7 +23845,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>750923411</v>
       </c>
@@ -23853,13 +23856,13 @@
         <v>1008</v>
       </c>
       <c r="D816" s="9" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="E816" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>750924248</v>
       </c>
@@ -23876,7 +23879,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>750924253</v>
       </c>
@@ -23893,7 +23896,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>750925051</v>
       </c>
@@ -23910,7 +23913,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>750925200</v>
       </c>
@@ -23927,7 +23930,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>750926532</v>
       </c>
@@ -23944,7 +23947,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>750926540</v>
       </c>
@@ -23961,7 +23964,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>750926754</v>
       </c>
@@ -23978,7 +23981,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>750927234</v>
       </c>
@@ -23995,7 +23998,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>750927255</v>
       </c>
@@ -24046,7 +24049,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>750929156</v>
       </c>
@@ -24063,7 +24066,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>750929159</v>
       </c>
@@ -24080,7 +24083,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>750929716</v>
       </c>
@@ -24097,7 +24100,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>750929907</v>
       </c>
@@ -24114,7 +24117,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>750930121</v>
       </c>
@@ -24131,7 +24134,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>750930201</v>
       </c>
@@ -24148,7 +24151,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>750930282</v>
       </c>
@@ -24165,7 +24168,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>750930365</v>
       </c>
@@ -24182,7 +24185,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>750930430</v>
       </c>
@@ -24199,7 +24202,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>750930488</v>
       </c>
@@ -24216,7 +24219,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>750930767</v>
       </c>
@@ -24233,7 +24236,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>750930842</v>
       </c>
@@ -24250,7 +24253,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>750931244</v>
       </c>
@@ -24267,7 +24270,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>750931310</v>
       </c>
@@ -24284,7 +24287,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>750931504</v>
       </c>
@@ -24301,7 +24304,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>750932162</v>
       </c>
@@ -24318,7 +24321,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>750932458</v>
       </c>
@@ -24335,7 +24338,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>750932611</v>
       </c>
@@ -24352,7 +24355,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>750933349</v>
       </c>
@@ -24369,7 +24372,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>750933449</v>
       </c>
@@ -24386,7 +24389,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>750933696</v>
       </c>
@@ -24403,7 +24406,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>750933840</v>
       </c>
@@ -24420,7 +24423,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>750933946</v>
       </c>
@@ -24437,7 +24440,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>750934013</v>
       </c>
@@ -24454,7 +24457,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>750934066</v>
       </c>
@@ -24471,7 +24474,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>750934139</v>
       </c>
@@ -24488,7 +24491,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>750934800</v>
       </c>
@@ -24505,7 +24508,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>750935069</v>
       </c>
@@ -24522,7 +24525,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>750935075</v>
       </c>
@@ -24539,7 +24542,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>750935296</v>
       </c>
@@ -24556,7 +24559,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>750935383</v>
       </c>
@@ -24573,7 +24576,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>750935706</v>
       </c>
@@ -24590,7 +24593,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>750936579</v>
       </c>
@@ -24607,7 +24610,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>750936788</v>
       </c>
@@ -24624,7 +24627,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>750937195</v>
       </c>
@@ -24641,7 +24644,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>750937459</v>
       </c>
@@ -24658,7 +24661,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>750937992</v>
       </c>
@@ -24675,7 +24678,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>750938130</v>
       </c>
@@ -24692,7 +24695,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>750938240</v>
       </c>
@@ -24709,7 +24712,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>750939951</v>
       </c>
@@ -24726,7 +24729,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>750940636</v>
       </c>
@@ -24743,7 +24746,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>750941775</v>
       </c>
@@ -24760,7 +24763,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>750941913</v>
       </c>
@@ -24777,7 +24780,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>750943504</v>
       </c>
@@ -24794,7 +24797,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>750943559</v>
       </c>
@@ -24811,7 +24814,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>750945814</v>
       </c>
@@ -24828,7 +24831,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>750946371</v>
       </c>
@@ -24845,7 +24848,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>750946902</v>
       </c>
@@ -24862,7 +24865,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>750947293</v>
       </c>
@@ -24879,7 +24882,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>750947761</v>
       </c>
@@ -24896,7 +24899,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>750948079</v>
       </c>
@@ -24913,7 +24916,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>750949263</v>
       </c>
@@ -24930,7 +24933,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>750949929</v>
       </c>
@@ -24947,7 +24950,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>750950520</v>
       </c>
@@ -24964,7 +24967,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>750951312</v>
       </c>
@@ -24981,7 +24984,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>750956467</v>
       </c>
@@ -24998,7 +25001,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>750956610</v>
       </c>
@@ -25015,7 +25018,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>750958513</v>
       </c>
@@ -25032,7 +25035,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>750958568</v>
       </c>
@@ -25049,7 +25052,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>750958850</v>
       </c>
@@ -25066,7 +25069,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>750959338</v>
       </c>
@@ -25083,7 +25086,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>750959783</v>
       </c>
@@ -25100,7 +25103,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>750960511</v>
       </c>
@@ -25117,7 +25120,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>750961045</v>
       </c>
@@ -25134,7 +25137,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>750961090</v>
       </c>
@@ -25151,7 +25154,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>750961263</v>
       </c>
@@ -25168,7 +25171,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>750961359</v>
       </c>
@@ -25185,7 +25188,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>750961820</v>
       </c>
@@ -25202,7 +25205,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>750961849</v>
       </c>
@@ -25219,7 +25222,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>750962047</v>
       </c>
@@ -25236,7 +25239,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>750962051</v>
       </c>
@@ -25253,7 +25256,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>750962136</v>
       </c>
@@ -25270,7 +25273,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>750962327</v>
       </c>
@@ -25287,7 +25290,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>750962545</v>
       </c>
@@ -25304,7 +25307,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>750962656</v>
       </c>
@@ -25338,7 +25341,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>750964128</v>
       </c>
@@ -25355,7 +25358,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>750964191</v>
       </c>
@@ -25372,7 +25375,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>750964192</v>
       </c>
@@ -25389,7 +25392,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>750964276</v>
       </c>
@@ -25406,7 +25409,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>750964344</v>
       </c>
@@ -25423,7 +25426,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>750964393</v>
       </c>
@@ -25440,7 +25443,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>750964463</v>
       </c>
@@ -25457,7 +25460,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>750964487</v>
       </c>
@@ -25474,7 +25477,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>750965269</v>
       </c>
@@ -25491,7 +25494,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>750965953</v>
       </c>
@@ -25508,7 +25511,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="914" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>750966001</v>
       </c>
@@ -25525,7 +25528,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>750966466</v>
       </c>
@@ -25542,7 +25545,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>750966700</v>
       </c>
@@ -25559,7 +25562,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>750966729</v>
       </c>
@@ -25576,7 +25579,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>750966758</v>
       </c>
@@ -25593,7 +25596,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>750967425</v>
       </c>
@@ -25627,7 +25630,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>750967466</v>
       </c>
@@ -25644,7 +25647,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>750967533</v>
       </c>
@@ -25661,7 +25664,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>750967537</v>
       </c>
@@ -25678,7 +25681,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>750967765</v>
       </c>
@@ -25695,7 +25698,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>750967983</v>
       </c>
@@ -25712,7 +25715,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="926" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>750968080</v>
       </c>
@@ -25729,7 +25732,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>750968152</v>
       </c>
@@ -25746,7 +25749,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>750968258</v>
       </c>
@@ -25763,7 +25766,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>750968670</v>
       </c>
@@ -25780,7 +25783,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>750968674</v>
       </c>
@@ -25797,7 +25800,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>750969088</v>
       </c>
@@ -25814,7 +25817,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>750969376</v>
       </c>
@@ -25831,7 +25834,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>750969436</v>
       </c>
@@ -25848,7 +25851,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>750969639</v>
       </c>
@@ -25865,7 +25868,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>750969658</v>
       </c>
@@ -25882,7 +25885,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>750969840</v>
       </c>
@@ -25899,7 +25902,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>750970046</v>
       </c>
@@ -25916,7 +25919,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>750970148</v>
       </c>
@@ -25933,7 +25936,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>750970376</v>
       </c>
@@ -25950,7 +25953,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>750970483</v>
       </c>
@@ -25967,7 +25970,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>750970513</v>
       </c>
@@ -25984,7 +25987,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>750970748</v>
       </c>
@@ -26001,7 +26004,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>750970876</v>
       </c>
@@ -26018,7 +26021,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>750970942</v>
       </c>
@@ -26035,7 +26038,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>750971268</v>
       </c>
@@ -26052,7 +26055,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>750971505</v>
       </c>
@@ -26069,7 +26072,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>750971537</v>
       </c>
@@ -26086,7 +26089,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>750971619</v>
       </c>
@@ -26103,7 +26106,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>750971645</v>
       </c>
@@ -26120,7 +26123,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>750971668</v>
       </c>
@@ -26137,7 +26140,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>750971727</v>
       </c>
@@ -26154,7 +26157,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>750972067</v>
       </c>
@@ -26171,7 +26174,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>750972294</v>
       </c>
@@ -26188,7 +26191,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>750972326</v>
       </c>
@@ -26205,7 +26208,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="955" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>750972339</v>
       </c>
@@ -26222,7 +26225,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>750972464</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>750972515</v>
       </c>
@@ -26256,7 +26259,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="958" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>750972564</v>
       </c>
@@ -26273,7 +26276,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="959" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>750972653</v>
       </c>
@@ -26290,7 +26293,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>750973356</v>
       </c>
@@ -26307,7 +26310,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>750973387</v>
       </c>
@@ -26324,7 +26327,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="962" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>750973512</v>
       </c>
@@ -26341,7 +26344,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="963" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>750973703</v>
       </c>
@@ -26358,7 +26361,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="964" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>750974007</v>
       </c>
@@ -26375,7 +26378,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="965" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>750974070</v>
       </c>
@@ -26392,7 +26395,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="966" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>750975085</v>
       </c>
@@ -26409,7 +26412,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="967" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>750975130</v>
       </c>
@@ -26426,7 +26429,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>750977353</v>
       </c>
@@ -26443,7 +26446,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="969" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>750977792</v>
       </c>
@@ -26460,7 +26463,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>750978451</v>
       </c>
@@ -26477,7 +26480,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="971" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>750979846</v>
       </c>
@@ -26494,7 +26497,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="972" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>750979980</v>
       </c>
@@ -26511,7 +26514,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>750980179</v>
       </c>
@@ -26528,7 +26531,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="974" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>750980424</v>
       </c>
@@ -26545,7 +26548,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="975" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>750980427</v>
       </c>
@@ -26562,7 +26565,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>750980804</v>
       </c>
@@ -26579,7 +26582,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>750982064</v>
       </c>
@@ -26596,7 +26599,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="978" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>750984527</v>
       </c>
@@ -26613,7 +26616,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="979" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>750985530</v>
       </c>
@@ -26630,7 +26633,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>750985820</v>
       </c>
@@ -26647,7 +26650,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>750987096</v>
       </c>
@@ -26664,7 +26667,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>750987409</v>
       </c>
@@ -26681,7 +26684,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="983" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>750991353</v>
       </c>
@@ -26698,7 +26701,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="984" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>750993332</v>
       </c>
@@ -26715,7 +26718,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="985" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>750995209</v>
       </c>
@@ -26732,7 +26735,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="986" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>750995347</v>
       </c>
@@ -26749,7 +26752,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="987" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>750995957</v>
       </c>
@@ -26766,7 +26769,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>750996062</v>
       </c>
@@ -26783,7 +26786,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>750996624</v>
       </c>
@@ -26800,7 +26803,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>750996638</v>
       </c>
@@ -26817,7 +26820,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>750997211</v>
       </c>
@@ -26834,7 +26837,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>750998051</v>
       </c>
@@ -26851,7 +26854,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>750998506</v>
       </c>
@@ -26868,7 +26871,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="994" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>750999202</v>
       </c>
@@ -26885,7 +26888,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="995" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>751001296</v>
       </c>
@@ -26902,7 +26905,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>751002548</v>
       </c>
@@ -26919,7 +26922,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="997" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>751004970</v>
       </c>
@@ -26936,7 +26939,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>751005127</v>
       </c>
@@ -26953,7 +26956,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>751005339</v>
       </c>
@@ -26970,7 +26973,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>751005710</v>
       </c>
@@ -26987,7 +26990,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>751005922</v>
       </c>
@@ -27004,7 +27007,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>751006677</v>
       </c>
@@ -27021,7 +27024,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>751006964</v>
       </c>
@@ -27038,7 +27041,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>751007907</v>
       </c>
@@ -27055,7 +27058,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>751007924</v>
       </c>
@@ -27073,17 +27076,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1005" xr:uid="{5C15034B-DED1-447B-9675-5E67C6BD6AE1}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ฝ่ายธุรกิจ 1"/>
-        <filter val="ฝ่ายธุรกิจ 2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27092,8 +27084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930C304D-FBD8-46B4-840F-331B8328FEE8}">
   <dimension ref="A3:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27166,16 +27158,16 @@
       <c r="A5" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>88</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>187</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>300</v>
       </c>
       <c r="G5" s="13"/>
@@ -27198,16 +27190,14 @@
       <c r="A6" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>60</v>
       </c>
-      <c r="C6">
-        <v>77</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="15">
+        <v>78</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>138</v>
       </c>
       <c r="G6" s="14"/>
@@ -27230,16 +27220,16 @@
       <c r="A7" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>171</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>312</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>504</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -27262,16 +27252,16 @@
       <c r="A8" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <v>31</v>
       </c>
       <c r="G8" s="13"/>
@@ -27292,26 +27282,26 @@
       <c r="A9" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>31</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="4">
         <f>SUM(B6:C6)</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I9" s="4">
         <f>GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 2","จัดส่ง","")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>290</v>
@@ -27324,26 +27314,26 @@
       <c r="A10" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <v>355</v>
       </c>
-      <c r="C10">
-        <v>598</v>
-      </c>
-      <c r="D10">
-        <v>51</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="15">
+        <v>599</v>
+      </c>
+      <c r="D10" s="15">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15">
         <v>1004</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="5">
         <f>H9/SUM(H9:I9)</f>
-        <v>0.99275362318840576</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5">
         <f>I9/GETPIVOTDATA("Customer Number",$A$3,"ฝ่ายงาน","SMEs 1")</f>
-        <v>3.3333333333333335E-3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>0.89783281733746134</v>
